--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(40-44) - (60-64)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(40-44) - (60-64)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z91"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,7 +1582,7 @@
         <v>2020</v>
       </c>
       <c r="D13" t="n">
-        <v>7253</v>
+        <v>7256</v>
       </c>
       <c r="E13" t="n">
         <v>8123</v>
@@ -1618,7 +1618,7 @@
         <v>7900.900000000001</v>
       </c>
       <c r="P13" t="n">
-        <v>-233</v>
+        <v>-230</v>
       </c>
       <c r="Q13" t="n">
         <v>414.9</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-233.0 (±414.9)</t>
+          <t>-230.0 (±414.9)</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1648,14 +1648,14 @@
         <v>1772947</v>
       </c>
       <c r="X13" t="n">
-        <v>-13.1</v>
+        <v>-13</v>
       </c>
       <c r="Y13" t="n">
         <v>23.4</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>-13.1(±23.4)</t>
+          <t>-13.0(±23.4)</t>
         </is>
       </c>
     </row>
@@ -1943,87 +1943,87 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>2020</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>2128</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>2099</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>1955</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>1842</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>1841</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>1782</v>
       </c>
       <c r="J17" t="n">
-        <v>12.4</v>
+        <v>1940.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.9</v>
+        <v>112.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.96</v>
       </c>
       <c r="M17" t="n">
-        <v>2.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>9.899999999999997</v>
+        <v>1842</v>
       </c>
       <c r="O17" t="n">
-        <v>14.9</v>
+        <v>2039.2</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.4</v>
+        <v>187.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>-3.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>16.3</v>
+        <v>5.3</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>12.4 (±2.5)</t>
+          <t>1940.6 (±98.6)</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-0.4 (±2.5)</t>
+          <t>187.4 (±98.6)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-3.2% (±16.3%)</t>
+          <t>9.7% (±5.3%)</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>7349</v>
+        <v>519477</v>
       </c>
       <c r="X17" t="n">
-        <v>-5.4</v>
+        <v>36.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>-5.4(±34.0)</t>
+          <t>36.1(±19.0)</t>
         </is>
       </c>
     </row>
@@ -2035,87 +2035,87 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>2020</v>
       </c>
       <c r="D18" t="n">
-        <v>2128</v>
+        <v>171</v>
       </c>
       <c r="E18" t="n">
-        <v>2099</v>
+        <v>166</v>
       </c>
       <c r="F18" t="n">
-        <v>1955</v>
+        <v>171</v>
       </c>
       <c r="G18" t="n">
-        <v>1842</v>
+        <v>195</v>
       </c>
       <c r="H18" t="n">
-        <v>1841</v>
+        <v>181</v>
       </c>
       <c r="I18" t="n">
-        <v>1782</v>
+        <v>184</v>
       </c>
       <c r="J18" t="n">
-        <v>1940.6</v>
+        <v>183.4</v>
       </c>
       <c r="K18" t="n">
-        <v>112.5</v>
+        <v>10.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.96</v>
       </c>
       <c r="M18" t="n">
-        <v>98.59999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="N18" t="n">
-        <v>1842</v>
+        <v>174.5</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.2</v>
+        <v>192.3</v>
       </c>
       <c r="P18" t="n">
-        <v>187.4</v>
+        <v>-12.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.59999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="R18" t="n">
-        <v>9.699999999999999</v>
+        <v>-6.8</v>
       </c>
       <c r="S18" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>1940.6 (±98.6)</t>
+          <t>183.4 (±8.9)</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>187.4 (±98.6)</t>
+          <t>-12.4 (±8.9)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>9.7% (±5.3%)</t>
+          <t>-6.8% (±4.3%)</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>519477</v>
+        <v>105793</v>
       </c>
       <c r="X18" t="n">
-        <v>36.1</v>
+        <v>-11.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>19</v>
+        <v>8.4</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>36.1(±19.0)</t>
+          <t>-11.7(±8.4)</t>
         </is>
       </c>
     </row>
@@ -2127,87 +2127,87 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>2020</v>
       </c>
       <c r="D19" t="n">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E19" t="n">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="F19" t="n">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="G19" t="n">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="H19" t="n">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="I19" t="n">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="J19" t="n">
-        <v>183.4</v>
+        <v>145</v>
       </c>
       <c r="K19" t="n">
-        <v>10.2</v>
+        <v>12.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.96</v>
       </c>
       <c r="M19" t="n">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="N19" t="n">
-        <v>174.5</v>
+        <v>133.8</v>
       </c>
       <c r="O19" t="n">
-        <v>192.3</v>
+        <v>156.2</v>
       </c>
       <c r="P19" t="n">
-        <v>-12.4</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="R19" t="n">
-        <v>-6.8</v>
+        <v>3.4</v>
       </c>
       <c r="S19" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>183.4 (±8.9)</t>
+          <t>145.0 (±11.2)</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-12.4 (±8.9)</t>
+          <t>5.0 (±11.2)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-6.8% (±4.3%)</t>
+          <t>3.4% (±7.4%)</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>105793</v>
+        <v>76584</v>
       </c>
       <c r="X19" t="n">
-        <v>-11.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.4</v>
+        <v>14.7</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>-11.7(±8.4)</t>
+          <t>6.5(±14.7)</t>
         </is>
       </c>
     </row>
@@ -2219,87 +2219,87 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>2020</v>
       </c>
       <c r="D20" t="n">
-        <v>150</v>
+        <v>391</v>
       </c>
       <c r="E20" t="n">
-        <v>133</v>
+        <v>401</v>
       </c>
       <c r="F20" t="n">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="G20" t="n">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="H20" t="n">
-        <v>153</v>
+        <v>365</v>
       </c>
       <c r="I20" t="n">
-        <v>128</v>
+        <v>342</v>
       </c>
       <c r="J20" t="n">
-        <v>145</v>
+        <v>366.8</v>
       </c>
       <c r="K20" t="n">
-        <v>12.8</v>
+        <v>21.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.96</v>
       </c>
       <c r="M20" t="n">
-        <v>11.2</v>
+        <v>18.9</v>
       </c>
       <c r="N20" t="n">
-        <v>133.8</v>
+        <v>347.9</v>
       </c>
       <c r="O20" t="n">
-        <v>156.2</v>
+        <v>385.6999999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>24.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.2</v>
+        <v>18.9</v>
       </c>
       <c r="R20" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="S20" t="n">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>145.0 (±11.2)</t>
+          <t>366.8 (±18.9)</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5.0 (±11.2)</t>
+          <t>24.2 (±18.9)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>3.4% (±7.4%)</t>
+          <t>6.6% (±5.2%)</t>
         </is>
       </c>
       <c r="W20" t="n">
-        <v>76584</v>
+        <v>104654</v>
       </c>
       <c r="X20" t="n">
-        <v>6.5</v>
+        <v>23.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.7</v>
+        <v>18.1</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>6.5(±14.7)</t>
+          <t>23.1(±18.1)</t>
         </is>
       </c>
     </row>
@@ -2311,87 +2311,87 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>2020</v>
       </c>
       <c r="D21" t="n">
-        <v>391</v>
+        <v>6605</v>
       </c>
       <c r="E21" t="n">
-        <v>401</v>
+        <v>7087</v>
       </c>
       <c r="F21" t="n">
-        <v>355</v>
+        <v>6838</v>
       </c>
       <c r="G21" t="n">
-        <v>343</v>
+        <v>6612</v>
       </c>
       <c r="H21" t="n">
-        <v>365</v>
+        <v>6631</v>
       </c>
       <c r="I21" t="n">
-        <v>342</v>
+        <v>6315</v>
       </c>
       <c r="J21" t="n">
-        <v>366.8</v>
+        <v>6834.199999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>21.6</v>
+        <v>256.7</v>
       </c>
       <c r="L21" t="n">
         <v>1.96</v>
       </c>
       <c r="M21" t="n">
-        <v>18.9</v>
+        <v>225</v>
       </c>
       <c r="N21" t="n">
-        <v>347.9</v>
+        <v>6609.199999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>385.6999999999999</v>
+        <v>7059.199999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>24.2</v>
+        <v>-229.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.9</v>
+        <v>225</v>
       </c>
       <c r="R21" t="n">
-        <v>6.6</v>
+        <v>-3.4</v>
       </c>
       <c r="S21" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>366.8 (±18.9)</t>
+          <t>6834.2 (±225.0)</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>24.2 (±18.9)</t>
+          <t>-229.2 (±225.0)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>6.6% (±5.2%)</t>
+          <t>-3.4% (±3.0%)</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>104654</v>
+        <v>2931284</v>
       </c>
       <c r="X21" t="n">
-        <v>23.1</v>
+        <v>-7.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.1</v>
+        <v>7.7</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>23.1(±18.1)</t>
+          <t>-7.8(±7.7)</t>
         </is>
       </c>
     </row>
@@ -2403,87 +2403,87 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>6605</v>
+        <v>1459</v>
       </c>
       <c r="E22" t="n">
-        <v>7087</v>
+        <v>1608</v>
       </c>
       <c r="F22" t="n">
-        <v>6838</v>
+        <v>1552</v>
       </c>
       <c r="G22" t="n">
-        <v>6612</v>
+        <v>1494</v>
       </c>
       <c r="H22" t="n">
-        <v>6631</v>
+        <v>1514</v>
       </c>
       <c r="I22" t="n">
-        <v>6315</v>
+        <v>1458</v>
       </c>
       <c r="J22" t="n">
-        <v>6834.199999999999</v>
+        <v>1550.8</v>
       </c>
       <c r="K22" t="n">
-        <v>256.7</v>
+        <v>51.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.96</v>
       </c>
       <c r="M22" t="n">
-        <v>225</v>
+        <v>45.1</v>
       </c>
       <c r="N22" t="n">
-        <v>6609.199999999999</v>
+        <v>1505.7</v>
       </c>
       <c r="O22" t="n">
-        <v>7059.199999999999</v>
+        <v>1595.9</v>
       </c>
       <c r="P22" t="n">
-        <v>-229.2</v>
+        <v>-91.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>225</v>
+        <v>45.1</v>
       </c>
       <c r="R22" t="n">
-        <v>-3.4</v>
+        <v>-5.9</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>6834.2 (±225.0)</t>
+          <t>1550.8 (±45.1)</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-229.2 (±225.0)</t>
+          <t>-91.8 (±45.1)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-3.4% (±3.0%)</t>
+          <t>-5.9% (±2.7%)</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>2931284</v>
+        <v>848170</v>
       </c>
       <c r="X22" t="n">
-        <v>-7.8</v>
+        <v>-10.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>-7.8(±7.7)</t>
+          <t>-10.8(±5.3)</t>
         </is>
       </c>
     </row>
@@ -2495,87 +2495,87 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>2020</v>
       </c>
       <c r="D23" t="n">
-        <v>1457</v>
+        <v>22178</v>
       </c>
       <c r="E23" t="n">
-        <v>1608</v>
+        <v>23099</v>
       </c>
       <c r="F23" t="n">
-        <v>1552</v>
+        <v>21517</v>
       </c>
       <c r="G23" t="n">
-        <v>1494</v>
+        <v>20973</v>
       </c>
       <c r="H23" t="n">
-        <v>1514</v>
+        <v>21181</v>
       </c>
       <c r="I23" t="n">
-        <v>1458</v>
+        <v>20375</v>
       </c>
       <c r="J23" t="n">
-        <v>1550.8</v>
+        <v>21868.2</v>
       </c>
       <c r="K23" t="n">
-        <v>51.4</v>
+        <v>914</v>
       </c>
       <c r="L23" t="n">
         <v>1.96</v>
       </c>
       <c r="M23" t="n">
-        <v>45.1</v>
+        <v>801.2</v>
       </c>
       <c r="N23" t="n">
-        <v>1505.7</v>
+        <v>21067</v>
       </c>
       <c r="O23" t="n">
-        <v>1595.9</v>
+        <v>22669.40000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>-93.8</v>
+        <v>309.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.1</v>
+        <v>801.2</v>
       </c>
       <c r="R23" t="n">
-        <v>-6</v>
+        <v>1.4</v>
       </c>
       <c r="S23" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>1550.8 (±45.1)</t>
+          <t>21868.2 (±801.2)</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-93.8 (±45.1)</t>
+          <t>309.8 (±801.2)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-6.0% (±2.7%)</t>
+          <t>1.4% (±3.6%)</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>848170</v>
+        <v>6529236</v>
       </c>
       <c r="X23" t="n">
-        <v>-11.1</v>
+        <v>4.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>12.3</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>-11.1(±5.4)</t>
+          <t>4.7(±12.3)</t>
         </is>
       </c>
     </row>
@@ -2587,87 +2587,87 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>22178</v>
+        <v>3907</v>
       </c>
       <c r="E24" t="n">
-        <v>23099</v>
+        <v>3623</v>
       </c>
       <c r="F24" t="n">
-        <v>21517</v>
+        <v>3695</v>
       </c>
       <c r="G24" t="n">
-        <v>20973</v>
+        <v>3744</v>
       </c>
       <c r="H24" t="n">
-        <v>21181</v>
+        <v>3643</v>
       </c>
       <c r="I24" t="n">
-        <v>20375</v>
+        <v>3626</v>
       </c>
       <c r="J24" t="n">
-        <v>21868.2</v>
+        <v>3755</v>
       </c>
       <c r="K24" t="n">
-        <v>914</v>
+        <v>46.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.96</v>
       </c>
       <c r="M24" t="n">
-        <v>801.2</v>
+        <v>40.9</v>
       </c>
       <c r="N24" t="n">
-        <v>21067</v>
+        <v>3714.1</v>
       </c>
       <c r="O24" t="n">
-        <v>22669.40000000001</v>
+        <v>3795.9</v>
       </c>
       <c r="P24" t="n">
-        <v>309.8</v>
+        <v>152</v>
       </c>
       <c r="Q24" t="n">
-        <v>801.2</v>
+        <v>40.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>21868.2 (±801.2)</t>
+          <t>3755.0 (±40.9)</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>309.8 (±801.2)</t>
+          <t>152.0 (±40.9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>1.4% (±3.6%)</t>
+          <t>4.0% (±1.1%)</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>6529236</v>
+        <v>1975105</v>
       </c>
       <c r="X24" t="n">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>4.7(±12.3)</t>
+          <t>7.7(±2.1)</t>
         </is>
       </c>
     </row>
@@ -2679,87 +2679,87 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>2020</v>
       </c>
       <c r="D25" t="n">
-        <v>3907</v>
+        <v>14662</v>
       </c>
       <c r="E25" t="n">
-        <v>3623</v>
+        <v>13738</v>
       </c>
       <c r="F25" t="n">
-        <v>3695</v>
+        <v>13374</v>
       </c>
       <c r="G25" t="n">
-        <v>3744</v>
+        <v>13023</v>
       </c>
       <c r="H25" t="n">
-        <v>3643</v>
+        <v>13000</v>
       </c>
       <c r="I25" t="n">
-        <v>3626</v>
+        <v>12374</v>
       </c>
       <c r="J25" t="n">
-        <v>3755</v>
+        <v>13395.4</v>
       </c>
       <c r="K25" t="n">
-        <v>46.7</v>
+        <v>452.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.96</v>
       </c>
       <c r="M25" t="n">
-        <v>40.9</v>
+        <v>396.9</v>
       </c>
       <c r="N25" t="n">
-        <v>3714.1</v>
+        <v>12998.5</v>
       </c>
       <c r="O25" t="n">
-        <v>3795.9</v>
+        <v>13792.3</v>
       </c>
       <c r="P25" t="n">
-        <v>152</v>
+        <v>1266.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.9</v>
+        <v>396.9</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="S25" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>3755.0 (±40.9)</t>
+          <t>13395.4 (±396.9)</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>152.0 (±40.9)</t>
+          <t>1266.6 (±396.9)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>4.0% (±1.1%)</t>
+          <t>9.5% (±3.2%)</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>1975105</v>
+        <v>3423435</v>
       </c>
       <c r="X25" t="n">
-        <v>7.7</v>
+        <v>37</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.1</v>
+        <v>11.6</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>7.7(±2.1)</t>
+          <t>37.0(±11.6)</t>
         </is>
       </c>
     </row>
@@ -2771,87 +2771,87 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>2020</v>
       </c>
       <c r="D26" t="n">
-        <v>14662</v>
+        <v>3038</v>
       </c>
       <c r="E26" t="n">
-        <v>13738</v>
+        <v>3168</v>
       </c>
       <c r="F26" t="n">
-        <v>13374</v>
+        <v>2922</v>
       </c>
       <c r="G26" t="n">
-        <v>13023</v>
+        <v>2938</v>
       </c>
       <c r="H26" t="n">
-        <v>13000</v>
+        <v>2920</v>
       </c>
       <c r="I26" t="n">
-        <v>12374</v>
+        <v>2692</v>
       </c>
       <c r="J26" t="n">
-        <v>13395.4</v>
+        <v>2972</v>
       </c>
       <c r="K26" t="n">
-        <v>452.8</v>
+        <v>150.7</v>
       </c>
       <c r="L26" t="n">
         <v>1.96</v>
       </c>
       <c r="M26" t="n">
-        <v>396.9</v>
+        <v>132.1</v>
       </c>
       <c r="N26" t="n">
-        <v>12998.5</v>
+        <v>2839.9</v>
       </c>
       <c r="O26" t="n">
-        <v>13792.3</v>
+        <v>3104.1</v>
       </c>
       <c r="P26" t="n">
-        <v>1266.6</v>
+        <v>66</v>
       </c>
       <c r="Q26" t="n">
-        <v>396.9</v>
+        <v>132.1</v>
       </c>
       <c r="R26" t="n">
-        <v>9.5</v>
+        <v>2.2</v>
       </c>
       <c r="S26" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>13395.4 (±396.9)</t>
+          <t>2972.0 (±132.1)</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>1266.6 (±396.9)</t>
+          <t>66.0 (±132.1)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>9.5% (±3.2%)</t>
+          <t>2.2% (±4.3%)</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>3423435</v>
+        <v>963841</v>
       </c>
       <c r="X26" t="n">
-        <v>37</v>
+        <v>6.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.6</v>
+        <v>13.8</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>37.0(±11.6)</t>
+          <t>6.8(±13.8)</t>
         </is>
       </c>
     </row>
@@ -2863,87 +2863,87 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>2020</v>
       </c>
       <c r="D27" t="n">
-        <v>3038</v>
+        <v>781</v>
       </c>
       <c r="E27" t="n">
-        <v>3168</v>
+        <v>822</v>
       </c>
       <c r="F27" t="n">
-        <v>2922</v>
+        <v>782</v>
       </c>
       <c r="G27" t="n">
-        <v>2938</v>
+        <v>847</v>
       </c>
       <c r="H27" t="n">
-        <v>2920</v>
+        <v>792</v>
       </c>
       <c r="I27" t="n">
-        <v>2692</v>
+        <v>730</v>
       </c>
       <c r="J27" t="n">
-        <v>2972</v>
+        <v>801.8000000000003</v>
       </c>
       <c r="K27" t="n">
-        <v>150.7</v>
+        <v>39.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.96</v>
       </c>
       <c r="M27" t="n">
-        <v>132.1</v>
+        <v>34.7</v>
       </c>
       <c r="N27" t="n">
-        <v>2839.9</v>
+        <v>767.1000000000003</v>
       </c>
       <c r="O27" t="n">
-        <v>3104.1</v>
+        <v>836.5000000000003</v>
       </c>
       <c r="P27" t="n">
-        <v>66</v>
+        <v>-20.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.1</v>
+        <v>34.7</v>
       </c>
       <c r="R27" t="n">
-        <v>2.2</v>
+        <v>-2.6</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>2972.0 (±132.1)</t>
+          <t>801.8 (±34.7)</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>66.0 (±132.1)</t>
+          <t>-20.8 (±34.7)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>2.2% (±4.3%)</t>
+          <t>-2.6% (±4.0%)</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>963841</v>
+        <v>367879</v>
       </c>
       <c r="X27" t="n">
-        <v>6.8</v>
+        <v>-5.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.8</v>
+        <v>9.5</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>6.8(±13.8)</t>
+          <t>-5.7(±9.5)</t>
         </is>
       </c>
     </row>
@@ -2955,87 +2955,87 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>2020</v>
       </c>
       <c r="D28" t="n">
-        <v>781</v>
+        <v>16349</v>
       </c>
       <c r="E28" t="n">
-        <v>822</v>
+        <v>13933</v>
       </c>
       <c r="F28" t="n">
-        <v>782</v>
+        <v>13524</v>
       </c>
       <c r="G28" t="n">
-        <v>847</v>
+        <v>13950</v>
       </c>
       <c r="H28" t="n">
-        <v>792</v>
+        <v>13874</v>
       </c>
       <c r="I28" t="n">
-        <v>730</v>
+        <v>14055</v>
       </c>
       <c r="J28" t="n">
-        <v>801.8000000000003</v>
+        <v>14146.4</v>
       </c>
       <c r="K28" t="n">
-        <v>39.6</v>
+        <v>181.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.96</v>
       </c>
       <c r="M28" t="n">
-        <v>34.7</v>
+        <v>158.9</v>
       </c>
       <c r="N28" t="n">
-        <v>767.1000000000003</v>
+        <v>13987.5</v>
       </c>
       <c r="O28" t="n">
-        <v>836.5000000000003</v>
+        <v>14305.3</v>
       </c>
       <c r="P28" t="n">
-        <v>-20.8</v>
+        <v>2202.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>34.7</v>
+        <v>158.9</v>
       </c>
       <c r="R28" t="n">
-        <v>-2.6</v>
+        <v>15.6</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>801.8 (±34.7)</t>
+          <t>14146.4 (±158.9)</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-20.8 (±34.7)</t>
+          <t>2202.6 (±158.9)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-2.6% (±4.0%)</t>
+          <t>15.6% (±1.3%)</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>367879</v>
+        <v>8934587</v>
       </c>
       <c r="X28" t="n">
-        <v>-5.7</v>
+        <v>24.7</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>-5.7(±9.5)</t>
+          <t>24.7(±1.7)</t>
         </is>
       </c>
     </row>
@@ -3047,87 +3047,87 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>2020</v>
       </c>
       <c r="D29" t="n">
-        <v>16349</v>
+        <v>2574</v>
       </c>
       <c r="E29" t="n">
-        <v>13933</v>
+        <v>2897</v>
       </c>
       <c r="F29" t="n">
-        <v>13524</v>
+        <v>2695</v>
       </c>
       <c r="G29" t="n">
-        <v>13950</v>
+        <v>2701</v>
       </c>
       <c r="H29" t="n">
-        <v>13874</v>
+        <v>2600</v>
       </c>
       <c r="I29" t="n">
-        <v>14055</v>
+        <v>2584</v>
       </c>
       <c r="J29" t="n">
-        <v>14146.4</v>
+        <v>2741.8</v>
       </c>
       <c r="K29" t="n">
-        <v>181.3</v>
+        <v>111.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.96</v>
       </c>
       <c r="M29" t="n">
-        <v>158.9</v>
+        <v>97.7</v>
       </c>
       <c r="N29" t="n">
-        <v>13987.5</v>
+        <v>2644.1</v>
       </c>
       <c r="O29" t="n">
-        <v>14305.3</v>
+        <v>2839.5</v>
       </c>
       <c r="P29" t="n">
-        <v>2202.6</v>
+        <v>-167.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>158.9</v>
+        <v>97.7</v>
       </c>
       <c r="R29" t="n">
-        <v>15.6</v>
+        <v>-6.1</v>
       </c>
       <c r="S29" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>14146.4 (±158.9)</t>
+          <t>2741.8 (±97.7)</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2202.6 (±158.9)</t>
+          <t>-167.8 (±97.7)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>15.6% (±1.3%)</t>
+          <t>-6.1% (±3.3%)</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>8934587</v>
+        <v>1562095</v>
       </c>
       <c r="X29" t="n">
-        <v>24.7</v>
+        <v>-10.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.7</v>
+        <v>6.2</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>24.7(±1.7)</t>
+          <t>-10.7(±6.2)</t>
         </is>
       </c>
     </row>
@@ -3139,179 +3139,179 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>2020</v>
       </c>
       <c r="D30" t="n">
-        <v>2574</v>
+        <v>2262</v>
       </c>
       <c r="E30" t="n">
-        <v>2897</v>
+        <v>2347</v>
       </c>
       <c r="F30" t="n">
-        <v>2695</v>
+        <v>2271</v>
       </c>
       <c r="G30" t="n">
-        <v>2701</v>
+        <v>2185</v>
       </c>
       <c r="H30" t="n">
-        <v>2600</v>
+        <v>2331</v>
       </c>
       <c r="I30" t="n">
-        <v>2584</v>
+        <v>2188</v>
       </c>
       <c r="J30" t="n">
-        <v>2741.8</v>
+        <v>2303.6</v>
       </c>
       <c r="K30" t="n">
-        <v>111.5</v>
+        <v>68.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.96</v>
       </c>
       <c r="M30" t="n">
-        <v>97.7</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
-        <v>2644.1</v>
+        <v>2243.6</v>
       </c>
       <c r="O30" t="n">
-        <v>2839.5</v>
+        <v>2363.6</v>
       </c>
       <c r="P30" t="n">
-        <v>-167.8</v>
+        <v>-41.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.7</v>
+        <v>60</v>
       </c>
       <c r="R30" t="n">
-        <v>-6.1</v>
+        <v>-1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>2741.8 (±97.7)</t>
+          <t>2303.6 (±60.0)</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-167.8 (±97.7)</t>
+          <t>-41.6 (±60.0)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-6.1% (±3.3%)</t>
+          <t>-1.8% (±2.5%)</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>1562095</v>
+        <v>1496087</v>
       </c>
       <c r="X30" t="n">
-        <v>-10.7</v>
+        <v>-2.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>-10.7(±6.2)</t>
+          <t>-2.8(±4.0)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>2020</v>
       </c>
       <c r="D31" t="n">
-        <v>2260</v>
+        <v>6051</v>
       </c>
       <c r="E31" t="n">
-        <v>2347</v>
+        <v>5697</v>
       </c>
       <c r="F31" t="n">
-        <v>2271</v>
+        <v>5503</v>
       </c>
       <c r="G31" t="n">
-        <v>2185</v>
+        <v>5366</v>
       </c>
       <c r="H31" t="n">
-        <v>2331</v>
+        <v>5551</v>
       </c>
       <c r="I31" t="n">
-        <v>2188</v>
+        <v>5349</v>
       </c>
       <c r="J31" t="n">
-        <v>2303.6</v>
+        <v>5597.200000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>68.5</v>
+        <v>128</v>
       </c>
       <c r="L31" t="n">
         <v>1.96</v>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>112.2</v>
       </c>
       <c r="N31" t="n">
-        <v>2243.6</v>
+        <v>5485.000000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>2363.6</v>
+        <v>5709.400000000001</v>
       </c>
       <c r="P31" t="n">
-        <v>-43.6</v>
+        <v>453.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>60</v>
+        <v>112.2</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.9</v>
+        <v>8.1</v>
       </c>
       <c r="S31" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>2303.6 (±60.0)</t>
+          <t>5597.2 (±112.2)</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-43.6 (±60.0)</t>
+          <t>453.8 (±112.2)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-1.9% (±2.5%)</t>
+          <t>8.1% (±2.1%)</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>1496087</v>
+        <v>1566708</v>
       </c>
       <c r="X31" t="n">
-        <v>-2.9</v>
+        <v>29</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>-2.9(±4.0)</t>
+          <t>29.0(±7.1)</t>
         </is>
       </c>
     </row>
@@ -3323,87 +3323,87 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>2020</v>
       </c>
       <c r="D32" t="n">
-        <v>6051</v>
+        <v>8021</v>
       </c>
       <c r="E32" t="n">
-        <v>5697</v>
+        <v>7986</v>
       </c>
       <c r="F32" t="n">
-        <v>5503</v>
+        <v>7619</v>
       </c>
       <c r="G32" t="n">
-        <v>5366</v>
+        <v>7380</v>
       </c>
       <c r="H32" t="n">
-        <v>5551</v>
+        <v>7187</v>
       </c>
       <c r="I32" t="n">
-        <v>5349</v>
+        <v>6976</v>
       </c>
       <c r="J32" t="n">
-        <v>5597.200000000001</v>
+        <v>7588.8</v>
       </c>
       <c r="K32" t="n">
-        <v>128</v>
+        <v>350</v>
       </c>
       <c r="L32" t="n">
         <v>1.96</v>
       </c>
       <c r="M32" t="n">
-        <v>112.2</v>
+        <v>306.8</v>
       </c>
       <c r="N32" t="n">
-        <v>5485.000000000001</v>
+        <v>7282</v>
       </c>
       <c r="O32" t="n">
-        <v>5709.400000000001</v>
+        <v>7895.6</v>
       </c>
       <c r="P32" t="n">
-        <v>453.8</v>
+        <v>432.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>112.2</v>
+        <v>306.8</v>
       </c>
       <c r="R32" t="n">
-        <v>8.1</v>
+        <v>5.7</v>
       </c>
       <c r="S32" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>5597.2 (±112.2)</t>
+          <t>7588.8 (±306.8)</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>453.8 (±112.2)</t>
+          <t>432.2 (±306.8)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>8.1% (±2.1%)</t>
+          <t>5.7% (±4.1%)</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>1566708</v>
+        <v>1919953</v>
       </c>
       <c r="X32" t="n">
-        <v>29</v>
+        <v>22.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.1</v>
+        <v>16</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>29.0(±7.1)</t>
+          <t>22.5(±16.0)</t>
         </is>
       </c>
     </row>
@@ -3415,87 +3415,87 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>8021</v>
+        <v>13594</v>
       </c>
       <c r="E33" t="n">
-        <v>7986</v>
+        <v>11830</v>
       </c>
       <c r="F33" t="n">
-        <v>7619</v>
+        <v>11572</v>
       </c>
       <c r="G33" t="n">
-        <v>7380</v>
+        <v>11075</v>
       </c>
       <c r="H33" t="n">
-        <v>7187</v>
+        <v>11203</v>
       </c>
       <c r="I33" t="n">
-        <v>6976</v>
+        <v>10867</v>
       </c>
       <c r="J33" t="n">
-        <v>7588.8</v>
+        <v>11547</v>
       </c>
       <c r="K33" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L33" t="n">
         <v>1.96</v>
       </c>
       <c r="M33" t="n">
-        <v>306.8</v>
+        <v>304.2</v>
       </c>
       <c r="N33" t="n">
-        <v>7282</v>
+        <v>11242.8</v>
       </c>
       <c r="O33" t="n">
-        <v>7895.6</v>
+        <v>11851.2</v>
       </c>
       <c r="P33" t="n">
-        <v>432.2</v>
+        <v>2047</v>
       </c>
       <c r="Q33" t="n">
-        <v>306.8</v>
+        <v>304.2</v>
       </c>
       <c r="R33" t="n">
-        <v>5.7</v>
+        <v>17.7</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>7588.8 (±306.8)</t>
+          <t>11547.0 (±304.2)</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>432.2 (±306.8)</t>
+          <t>2047.0 (±304.2)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>5.7% (±4.1%)</t>
+          <t>17.7% (±3.0%)</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>1919953</v>
+        <v>1239893</v>
       </c>
       <c r="X33" t="n">
-        <v>22.5</v>
+        <v>165.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>16</v>
+        <v>24.5</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>22.5(±16.0)</t>
+          <t>165.1(±24.5)</t>
         </is>
       </c>
     </row>
@@ -3507,87 +3507,87 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>13594</v>
+        <v>4656</v>
       </c>
       <c r="E34" t="n">
-        <v>11830</v>
+        <v>5052</v>
       </c>
       <c r="F34" t="n">
-        <v>11572</v>
+        <v>4719</v>
       </c>
       <c r="G34" t="n">
-        <v>11075</v>
+        <v>4581</v>
       </c>
       <c r="H34" t="n">
-        <v>11203</v>
+        <v>4686</v>
       </c>
       <c r="I34" t="n">
-        <v>10867</v>
+        <v>4284</v>
       </c>
       <c r="J34" t="n">
-        <v>11547</v>
+        <v>4770.800000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>347</v>
+        <v>247.1</v>
       </c>
       <c r="L34" t="n">
         <v>1.96</v>
       </c>
       <c r="M34" t="n">
-        <v>304.2</v>
+        <v>216.6</v>
       </c>
       <c r="N34" t="n">
-        <v>11242.8</v>
+        <v>4554.200000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>11851.2</v>
+        <v>4987.400000000001</v>
       </c>
       <c r="P34" t="n">
-        <v>2047</v>
+        <v>-114.8</v>
       </c>
       <c r="Q34" t="n">
-        <v>304.2</v>
+        <v>216.6</v>
       </c>
       <c r="R34" t="n">
-        <v>17.7</v>
+        <v>-2.4</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>11547.0 (±304.2)</t>
+          <t>4770.8 (±216.6)</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2047.0 (±304.2)</t>
+          <t>-114.8 (±216.6)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>17.7% (±3.0%)</t>
+          <t>-2.4% (±4.2%)</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>1239893</v>
+        <v>697930</v>
       </c>
       <c r="X34" t="n">
-        <v>165.1</v>
+        <v>-16.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.5</v>
+        <v>31</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>165.1(±24.5)</t>
+          <t>-16.4(±31.0)</t>
         </is>
       </c>
     </row>
@@ -3599,87 +3599,87 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>2020</v>
       </c>
       <c r="D35" t="n">
-        <v>4656</v>
+        <v>473</v>
       </c>
       <c r="E35" t="n">
-        <v>5052</v>
+        <v>404</v>
       </c>
       <c r="F35" t="n">
-        <v>4719</v>
+        <v>382</v>
       </c>
       <c r="G35" t="n">
-        <v>4581</v>
+        <v>415</v>
       </c>
       <c r="H35" t="n">
-        <v>4686</v>
+        <v>369</v>
       </c>
       <c r="I35" t="n">
-        <v>4284</v>
+        <v>403</v>
       </c>
       <c r="J35" t="n">
-        <v>4770.800000000001</v>
+        <v>400.2</v>
       </c>
       <c r="K35" t="n">
-        <v>247.1</v>
+        <v>16.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.96</v>
       </c>
       <c r="M35" t="n">
-        <v>216.6</v>
+        <v>14.6</v>
       </c>
       <c r="N35" t="n">
-        <v>4554.200000000001</v>
+        <v>385.6</v>
       </c>
       <c r="O35" t="n">
-        <v>4987.400000000001</v>
+        <v>414.8000000000001</v>
       </c>
       <c r="P35" t="n">
-        <v>-114.8</v>
+        <v>72.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.6</v>
+        <v>14.6</v>
       </c>
       <c r="R35" t="n">
-        <v>-2.4</v>
+        <v>18.2</v>
       </c>
       <c r="S35" t="n">
         <v>4.2</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>4770.8 (±216.6)</t>
+          <t>400.2 (±14.6)</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>-114.8 (±216.6)</t>
+          <t>72.8 (±14.6)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>-2.4% (±4.2%)</t>
+          <t>18.2% (±4.2%)</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>697930</v>
+        <v>132086</v>
       </c>
       <c r="X35" t="n">
-        <v>-16.4</v>
+        <v>55.1</v>
       </c>
       <c r="Y35" t="n">
-        <v>31</v>
+        <v>11.1</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>-16.4(±31.0)</t>
+          <t>55.1(±11.1)</t>
         </is>
       </c>
     </row>
@@ -3691,87 +3691,87 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>473</v>
+        <v>10303</v>
       </c>
       <c r="E36" t="n">
-        <v>404</v>
+        <v>10296</v>
       </c>
       <c r="F36" t="n">
-        <v>382</v>
+        <v>9662</v>
       </c>
       <c r="G36" t="n">
-        <v>415</v>
+        <v>9610</v>
       </c>
       <c r="H36" t="n">
-        <v>369</v>
+        <v>9469</v>
       </c>
       <c r="I36" t="n">
-        <v>403</v>
+        <v>9187</v>
       </c>
       <c r="J36" t="n">
-        <v>400.2</v>
+        <v>9844.800000000003</v>
       </c>
       <c r="K36" t="n">
-        <v>16.7</v>
+        <v>365</v>
       </c>
       <c r="L36" t="n">
         <v>1.96</v>
       </c>
       <c r="M36" t="n">
-        <v>14.6</v>
+        <v>319.9</v>
       </c>
       <c r="N36" t="n">
-        <v>385.6</v>
+        <v>9524.900000000003</v>
       </c>
       <c r="O36" t="n">
-        <v>414.8000000000001</v>
+        <v>10164.7</v>
       </c>
       <c r="P36" t="n">
-        <v>72.8</v>
+        <v>458.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.6</v>
+        <v>319.9</v>
       </c>
       <c r="R36" t="n">
-        <v>18.2</v>
+        <v>4.7</v>
       </c>
       <c r="S36" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>400.2 (±14.6)</t>
+          <t>9844.8 (±319.9)</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>72.8 (±14.6)</t>
+          <t>458.2 (±319.9)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>18.2% (±4.2%)</t>
+          <t>4.7% (±3.3%)</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>132086</v>
+        <v>1900479</v>
       </c>
       <c r="X36" t="n">
-        <v>55.1</v>
+        <v>24.1</v>
       </c>
       <c r="Y36" t="n">
-        <v>11.1</v>
+        <v>16.8</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>55.1(±11.1)</t>
+          <t>24.1(±16.8)</t>
         </is>
       </c>
     </row>
@@ -3783,87 +3783,87 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>2020</v>
       </c>
       <c r="D37" t="n">
-        <v>10303</v>
+        <v>3397</v>
       </c>
       <c r="E37" t="n">
-        <v>10296</v>
+        <v>3937</v>
       </c>
       <c r="F37" t="n">
-        <v>9662</v>
+        <v>3766</v>
       </c>
       <c r="G37" t="n">
-        <v>9610</v>
+        <v>3653</v>
       </c>
       <c r="H37" t="n">
-        <v>9469</v>
+        <v>3637</v>
       </c>
       <c r="I37" t="n">
-        <v>9187</v>
+        <v>3478</v>
       </c>
       <c r="J37" t="n">
-        <v>9844.800000000003</v>
+        <v>3758.200000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>365</v>
+        <v>152.2</v>
       </c>
       <c r="L37" t="n">
         <v>1.96</v>
       </c>
       <c r="M37" t="n">
-        <v>319.9</v>
+        <v>133.4</v>
       </c>
       <c r="N37" t="n">
-        <v>9524.900000000003</v>
+        <v>3624.800000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>10164.7</v>
+        <v>3891.600000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>458.2</v>
+        <v>-361.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>319.9</v>
+        <v>133.4</v>
       </c>
       <c r="R37" t="n">
-        <v>4.7</v>
+        <v>-9.6</v>
       </c>
       <c r="S37" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>9844.8 (±319.9)</t>
+          <t>3758.2 (±133.4)</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>458.2 (±319.9)</t>
+          <t>-361.2 (±133.4)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>4.7% (±3.3%)</t>
+          <t>-9.6% (±3.1%)</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>1900479</v>
+        <v>951643</v>
       </c>
       <c r="X37" t="n">
-        <v>24.1</v>
+        <v>-38</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.8</v>
+        <v>14.1</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>24.1(±16.8)</t>
+          <t>-38.0(±14.1)</t>
         </is>
       </c>
     </row>
@@ -3875,87 +3875,87 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>3397</v>
+        <v>1648</v>
       </c>
       <c r="E38" t="n">
-        <v>3937</v>
+        <v>1665</v>
       </c>
       <c r="F38" t="n">
-        <v>3766</v>
+        <v>1628</v>
       </c>
       <c r="G38" t="n">
-        <v>3653</v>
+        <v>1556</v>
       </c>
       <c r="H38" t="n">
-        <v>3637</v>
+        <v>1596</v>
       </c>
       <c r="I38" t="n">
-        <v>3478</v>
+        <v>1462</v>
       </c>
       <c r="J38" t="n">
-        <v>3758.200000000001</v>
+        <v>1610.2</v>
       </c>
       <c r="K38" t="n">
-        <v>152.2</v>
+        <v>69.7</v>
       </c>
       <c r="L38" t="n">
         <v>1.96</v>
       </c>
       <c r="M38" t="n">
-        <v>133.4</v>
+        <v>61.1</v>
       </c>
       <c r="N38" t="n">
-        <v>3624.800000000001</v>
+        <v>1549.1</v>
       </c>
       <c r="O38" t="n">
-        <v>3891.600000000001</v>
+        <v>1671.3</v>
       </c>
       <c r="P38" t="n">
-        <v>-361.2</v>
+        <v>37.8</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.4</v>
+        <v>61.1</v>
       </c>
       <c r="R38" t="n">
-        <v>-9.6</v>
+        <v>2.3</v>
       </c>
       <c r="S38" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>3758.2 (±133.4)</t>
+          <t>1610.2 (±61.1)</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-361.2 (±133.4)</t>
+          <t>37.8 (±61.1)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-9.6% (±3.1%)</t>
+          <t>2.3% (±3.7%)</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>951643</v>
+        <v>214518</v>
       </c>
       <c r="X38" t="n">
-        <v>-38</v>
+        <v>17.6</v>
       </c>
       <c r="Y38" t="n">
-        <v>14.1</v>
+        <v>28.5</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>-38.0(±14.1)</t>
+          <t>17.6(±28.5)</t>
         </is>
       </c>
     </row>
@@ -3967,87 +3967,87 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>1648</v>
+        <v>3741</v>
       </c>
       <c r="E39" t="n">
-        <v>1665</v>
+        <v>4140</v>
       </c>
       <c r="F39" t="n">
-        <v>1628</v>
+        <v>3900</v>
       </c>
       <c r="G39" t="n">
-        <v>1556</v>
+        <v>3772</v>
       </c>
       <c r="H39" t="n">
-        <v>1596</v>
+        <v>3724</v>
       </c>
       <c r="I39" t="n">
-        <v>1462</v>
+        <v>3350</v>
       </c>
       <c r="J39" t="n">
-        <v>1610.2</v>
+        <v>3850.800000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>69.7</v>
+        <v>257.7</v>
       </c>
       <c r="L39" t="n">
         <v>1.96</v>
       </c>
       <c r="M39" t="n">
-        <v>61.1</v>
+        <v>225.9</v>
       </c>
       <c r="N39" t="n">
-        <v>1549.1</v>
+        <v>3624.900000000001</v>
       </c>
       <c r="O39" t="n">
-        <v>1671.3</v>
+        <v>4076.700000000001</v>
       </c>
       <c r="P39" t="n">
-        <v>37.8</v>
+        <v>-109.8</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.1</v>
+        <v>225.9</v>
       </c>
       <c r="R39" t="n">
-        <v>2.3</v>
+        <v>-2.9</v>
       </c>
       <c r="S39" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>1610.2 (±61.1)</t>
+          <t>3850.8 (±225.9)</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>37.8 (±61.1)</t>
+          <t>-109.8 (±225.9)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>2.3% (±3.7%)</t>
+          <t>-2.9% (±5.3%)</t>
         </is>
       </c>
       <c r="W39" t="n">
-        <v>214518</v>
+        <v>877094</v>
       </c>
       <c r="X39" t="n">
-        <v>17.6</v>
+        <v>-12.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.5</v>
+        <v>25.7</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>17.6(±28.5)</t>
+          <t>-12.5(±25.7)</t>
         </is>
       </c>
     </row>
@@ -4059,87 +4059,87 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>3741</v>
+        <v>45854</v>
       </c>
       <c r="E40" t="n">
-        <v>4140</v>
+        <v>48367</v>
       </c>
       <c r="F40" t="n">
-        <v>3900</v>
+        <v>46453</v>
       </c>
       <c r="G40" t="n">
-        <v>3772</v>
+        <v>45201</v>
       </c>
       <c r="H40" t="n">
-        <v>3724</v>
+        <v>44161</v>
       </c>
       <c r="I40" t="n">
-        <v>3350</v>
+        <v>42805</v>
       </c>
       <c r="J40" t="n">
-        <v>3850.800000000001</v>
+        <v>46342.2</v>
       </c>
       <c r="K40" t="n">
-        <v>257.7</v>
+        <v>1909</v>
       </c>
       <c r="L40" t="n">
         <v>1.96</v>
       </c>
       <c r="M40" t="n">
-        <v>225.9</v>
+        <v>1673.3</v>
       </c>
       <c r="N40" t="n">
-        <v>3624.900000000001</v>
+        <v>44668.89999999999</v>
       </c>
       <c r="O40" t="n">
-        <v>4076.700000000001</v>
+        <v>48015.5</v>
       </c>
       <c r="P40" t="n">
-        <v>-109.8</v>
+        <v>-488.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>225.9</v>
+        <v>1673.3</v>
       </c>
       <c r="R40" t="n">
-        <v>-2.9</v>
+        <v>-1.1</v>
       </c>
       <c r="S40" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>3850.8 (±225.9)</t>
+          <t>46342.2 (±1673.3)</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-109.8 (±225.9)</t>
+          <t>-488.2 (±1673.3)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-2.9% (±5.3%)</t>
+          <t>-1.1% (±3.4%)</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>877094</v>
+        <v>10505421</v>
       </c>
       <c r="X40" t="n">
-        <v>-12.5</v>
+        <v>-4.6</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.7</v>
+        <v>15.9</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>-12.5(±25.7)</t>
+          <t>-4.6(±15.9)</t>
         </is>
       </c>
     </row>
@@ -4151,87 +4151,87 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>2020</v>
       </c>
       <c r="D41" t="n">
-        <v>45854</v>
+        <v>8146</v>
       </c>
       <c r="E41" t="n">
-        <v>48367</v>
+        <v>8189</v>
       </c>
       <c r="F41" t="n">
-        <v>46453</v>
+        <v>7736</v>
       </c>
       <c r="G41" t="n">
-        <v>45201</v>
+        <v>7840</v>
       </c>
       <c r="H41" t="n">
-        <v>44161</v>
+        <v>7754</v>
       </c>
       <c r="I41" t="n">
-        <v>42805</v>
+        <v>7740</v>
       </c>
       <c r="J41" t="n">
-        <v>46342.2</v>
+        <v>8002.999999999998</v>
       </c>
       <c r="K41" t="n">
-        <v>1909</v>
+        <v>172.8</v>
       </c>
       <c r="L41" t="n">
         <v>1.96</v>
       </c>
       <c r="M41" t="n">
-        <v>1673.3</v>
+        <v>151.5</v>
       </c>
       <c r="N41" t="n">
-        <v>44668.89999999999</v>
+        <v>7851.499999999998</v>
       </c>
       <c r="O41" t="n">
-        <v>48015.5</v>
+        <v>8154.499999999998</v>
       </c>
       <c r="P41" t="n">
-        <v>-488.2</v>
+        <v>143</v>
       </c>
       <c r="Q41" t="n">
-        <v>1673.3</v>
+        <v>151.5</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.1</v>
+        <v>1.8</v>
       </c>
       <c r="S41" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>46342.2 (±1673.3)</t>
+          <t>8003.0 (±151.5)</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>-488.2 (±1673.3)</t>
+          <t>143.0 (±151.5)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>-1.1% (±3.4%)</t>
+          <t>1.8% (±1.9%)</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>10505421</v>
+        <v>1831777</v>
       </c>
       <c r="X41" t="n">
-        <v>-4.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y41" t="n">
-        <v>15.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>-4.6(±15.9)</t>
+          <t>7.8(±8.3)</t>
         </is>
       </c>
     </row>
@@ -4243,87 +4243,87 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>2020</v>
       </c>
       <c r="D42" t="n">
-        <v>8146</v>
+        <v>14761</v>
       </c>
       <c r="E42" t="n">
-        <v>8189</v>
+        <v>15728</v>
       </c>
       <c r="F42" t="n">
-        <v>7736</v>
+        <v>15104</v>
       </c>
       <c r="G42" t="n">
-        <v>7840</v>
+        <v>14479</v>
       </c>
       <c r="H42" t="n">
-        <v>7754</v>
+        <v>14761</v>
       </c>
       <c r="I42" t="n">
-        <v>7740</v>
+        <v>13491</v>
       </c>
       <c r="J42" t="n">
-        <v>8002.999999999998</v>
+        <v>15043</v>
       </c>
       <c r="K42" t="n">
-        <v>172.8</v>
+        <v>739.4</v>
       </c>
       <c r="L42" t="n">
         <v>1.96</v>
       </c>
       <c r="M42" t="n">
-        <v>151.5</v>
+        <v>648.1</v>
       </c>
       <c r="N42" t="n">
-        <v>7851.499999999998</v>
+        <v>14394.9</v>
       </c>
       <c r="O42" t="n">
-        <v>8154.499999999998</v>
+        <v>15691.1</v>
       </c>
       <c r="P42" t="n">
-        <v>143</v>
+        <v>-282</v>
       </c>
       <c r="Q42" t="n">
-        <v>151.5</v>
+        <v>648.1</v>
       </c>
       <c r="R42" t="n">
-        <v>1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="S42" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>8003.0 (±151.5)</t>
+          <t>15043.0 (±648.1)</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>143.0 (±151.5)</t>
+          <t>-282.0 (±648.1)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>1.8% (±1.9%)</t>
+          <t>-1.9% (±4.0%)</t>
         </is>
       </c>
       <c r="W42" t="n">
-        <v>1831777</v>
+        <v>1701386</v>
       </c>
       <c r="X42" t="n">
-        <v>7.8</v>
+        <v>-16.6</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.300000000000001</v>
+        <v>38.1</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>7.8(±8.3)</t>
+          <t>-16.6(±38.1)</t>
         </is>
       </c>
     </row>
@@ -4335,87 +4335,87 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>2020</v>
       </c>
       <c r="D43" t="n">
-        <v>14753</v>
+        <v>157</v>
       </c>
       <c r="E43" t="n">
-        <v>15728</v>
+        <v>123</v>
       </c>
       <c r="F43" t="n">
-        <v>15104</v>
+        <v>129</v>
       </c>
       <c r="G43" t="n">
-        <v>14479</v>
+        <v>148</v>
       </c>
       <c r="H43" t="n">
-        <v>14761</v>
+        <v>153</v>
       </c>
       <c r="I43" t="n">
-        <v>13488</v>
+        <v>170</v>
       </c>
       <c r="J43" t="n">
-        <v>15042.4</v>
+        <v>148.6</v>
       </c>
       <c r="K43" t="n">
-        <v>740.4</v>
+        <v>17</v>
       </c>
       <c r="L43" t="n">
         <v>1.96</v>
       </c>
       <c r="M43" t="n">
-        <v>649</v>
+        <v>14.9</v>
       </c>
       <c r="N43" t="n">
-        <v>14393.4</v>
+        <v>133.7</v>
       </c>
       <c r="O43" t="n">
-        <v>15691.4</v>
+        <v>163.5</v>
       </c>
       <c r="P43" t="n">
-        <v>-289.4</v>
+        <v>8.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>649</v>
+        <v>14.9</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.9</v>
+        <v>5.7</v>
       </c>
       <c r="S43" t="n">
-        <v>4.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>15042.4 (±649.0)</t>
+          <t>148.6 (±14.9)</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>-289.4 (±649.0)</t>
+          <t>8.4 (±14.9)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>-1.9% (±4.1%)</t>
+          <t>5.7% (±9.7%)</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>1701386</v>
+        <v>57069</v>
       </c>
       <c r="X43" t="n">
-        <v>-17</v>
+        <v>14.7</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.1</v>
+        <v>26.1</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>-17.0(±38.1)</t>
+          <t>14.7(±26.1)</t>
         </is>
       </c>
     </row>
@@ -4427,87 +4427,87 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>157</v>
+        <v>36742</v>
       </c>
       <c r="E44" t="n">
-        <v>123</v>
+        <v>33698</v>
       </c>
       <c r="F44" t="n">
-        <v>129</v>
+        <v>32023</v>
       </c>
       <c r="G44" t="n">
-        <v>148</v>
+        <v>32121</v>
       </c>
       <c r="H44" t="n">
-        <v>153</v>
+        <v>31452</v>
       </c>
       <c r="I44" t="n">
-        <v>170</v>
+        <v>30736</v>
       </c>
       <c r="J44" t="n">
-        <v>148.6</v>
+        <v>32685.99999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>17</v>
+        <v>979.4</v>
       </c>
       <c r="L44" t="n">
         <v>1.96</v>
       </c>
       <c r="M44" t="n">
-        <v>14.9</v>
+        <v>858.5</v>
       </c>
       <c r="N44" t="n">
-        <v>133.7</v>
+        <v>31827.49999999999</v>
       </c>
       <c r="O44" t="n">
-        <v>163.5</v>
+        <v>33544.49999999999</v>
       </c>
       <c r="P44" t="n">
-        <v>8.4</v>
+        <v>4056</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.9</v>
+        <v>858.5</v>
       </c>
       <c r="R44" t="n">
-        <v>5.7</v>
+        <v>12.4</v>
       </c>
       <c r="S44" t="n">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>148.6 (±14.9)</t>
+          <t>32686.0 (±858.5)</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>8.4 (±14.9)</t>
+          <t>4056.0 (±858.5)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>5.7% (±9.7%)</t>
+          <t>12.4% (±2.9%)</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>57069</v>
+        <v>10938072</v>
       </c>
       <c r="X44" t="n">
-        <v>14.7</v>
+        <v>37.1</v>
       </c>
       <c r="Y44" t="n">
-        <v>26.1</v>
+        <v>7.8</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>14.7(±26.1)</t>
+          <t>37.1(±7.8)</t>
         </is>
       </c>
     </row>
@@ -4519,87 +4519,87 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>2020</v>
       </c>
       <c r="D45" t="n">
-        <v>36742</v>
+        <v>3144</v>
       </c>
       <c r="E45" t="n">
-        <v>33698</v>
+        <v>3443</v>
       </c>
       <c r="F45" t="n">
-        <v>32023</v>
+        <v>3303</v>
       </c>
       <c r="G45" t="n">
-        <v>32121</v>
+        <v>3296</v>
       </c>
       <c r="H45" t="n">
-        <v>31452</v>
+        <v>3331</v>
       </c>
       <c r="I45" t="n">
-        <v>30736</v>
+        <v>3013</v>
       </c>
       <c r="J45" t="n">
-        <v>32685.99999999999</v>
+        <v>3340.4</v>
       </c>
       <c r="K45" t="n">
-        <v>979.4</v>
+        <v>142.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.96</v>
       </c>
       <c r="M45" t="n">
-        <v>858.5</v>
+        <v>124.7</v>
       </c>
       <c r="N45" t="n">
-        <v>31827.49999999999</v>
+        <v>3215.7</v>
       </c>
       <c r="O45" t="n">
-        <v>33544.49999999999</v>
+        <v>3465.1</v>
       </c>
       <c r="P45" t="n">
-        <v>4056</v>
+        <v>-196.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>858.5</v>
+        <v>124.7</v>
       </c>
       <c r="R45" t="n">
-        <v>12.4</v>
+        <v>-5.9</v>
       </c>
       <c r="S45" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>32686.0 (±858.5)</t>
+          <t>3340.4 (±124.7)</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>4056.0 (±858.5)</t>
+          <t>-196.4 (±124.7)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>12.4% (±2.9%)</t>
+          <t>-5.9% (±3.4%)</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>10938072</v>
+        <v>306864</v>
       </c>
       <c r="X45" t="n">
-        <v>37.1</v>
+        <v>-64</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.8</v>
+        <v>40.6</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>37.1(±7.8)</t>
+          <t>-64.0(±40.6)</t>
         </is>
       </c>
     </row>
@@ -4611,87 +4611,87 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>2020</v>
       </c>
       <c r="D46" t="n">
-        <v>3144</v>
+        <v>5336</v>
       </c>
       <c r="E46" t="n">
-        <v>3443</v>
+        <v>5421</v>
       </c>
       <c r="F46" t="n">
-        <v>3303</v>
+        <v>5203</v>
       </c>
       <c r="G46" t="n">
-        <v>3296</v>
+        <v>4514</v>
       </c>
       <c r="H46" t="n">
-        <v>3331</v>
+        <v>4424</v>
       </c>
       <c r="I46" t="n">
-        <v>3013</v>
+        <v>4415</v>
       </c>
       <c r="J46" t="n">
-        <v>3340.4</v>
+        <v>4913.799999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>142.3</v>
+        <v>428.8</v>
       </c>
       <c r="L46" t="n">
         <v>1.96</v>
       </c>
       <c r="M46" t="n">
-        <v>124.7</v>
+        <v>375.9</v>
       </c>
       <c r="N46" t="n">
-        <v>3215.7</v>
+        <v>4537.899999999999</v>
       </c>
       <c r="O46" t="n">
-        <v>3465.1</v>
+        <v>5289.699999999998</v>
       </c>
       <c r="P46" t="n">
-        <v>-196.4</v>
+        <v>422.2</v>
       </c>
       <c r="Q46" t="n">
-        <v>124.7</v>
+        <v>375.9</v>
       </c>
       <c r="R46" t="n">
-        <v>-5.9</v>
+        <v>8.6</v>
       </c>
       <c r="S46" t="n">
-        <v>3.4</v>
+        <v>7.7</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>3340.4 (±124.7)</t>
+          <t>4913.8 (±375.9)</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-196.4 (±124.7)</t>
+          <t>422.2 (±375.9)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>-5.9% (±3.4%)</t>
+          <t>8.6% (±7.7%)</t>
         </is>
       </c>
       <c r="W46" t="n">
-        <v>306864</v>
+        <v>465992</v>
       </c>
       <c r="X46" t="n">
-        <v>-64</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.6</v>
+        <v>80.7</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>-64.0(±40.6)</t>
+          <t>90.6(±80.7)</t>
         </is>
       </c>
     </row>
@@ -4703,87 +4703,87 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>14</v>
+        <v>379</v>
       </c>
       <c r="E47" t="n">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="F47" t="n">
-        <v>18</v>
+        <v>346</v>
       </c>
       <c r="G47" t="n">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="H47" t="n">
-        <v>17</v>
+        <v>334</v>
       </c>
       <c r="I47" t="n">
-        <v>15</v>
+        <v>343</v>
       </c>
       <c r="J47" t="n">
-        <v>18.19999999999999</v>
+        <v>340.3999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>2.1</v>
+        <v>13.1</v>
       </c>
       <c r="L47" t="n">
         <v>1.96</v>
       </c>
       <c r="M47" t="n">
-        <v>1.8</v>
+        <v>11.5</v>
       </c>
       <c r="N47" t="n">
-        <v>16.39999999999999</v>
+        <v>328.8999999999999</v>
       </c>
       <c r="O47" t="n">
-        <v>19.99999999999999</v>
+        <v>351.8999999999999</v>
       </c>
       <c r="P47" t="n">
-        <v>-4.2</v>
+        <v>38.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.8</v>
+        <v>11.5</v>
       </c>
       <c r="R47" t="n">
-        <v>-23.1</v>
+        <v>11.3</v>
       </c>
       <c r="S47" t="n">
-        <v>6.9</v>
+        <v>3.6</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>18.2 (±1.8)</t>
+          <t>340.4 (±11.5)</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>-4.2 (±1.8)</t>
+          <t>38.6 (±11.5)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>-23.1% (±6.9%)</t>
+          <t>11.3% (±3.6%)</t>
         </is>
       </c>
       <c r="W47" t="n">
-        <v>7181</v>
+        <v>111423</v>
       </c>
       <c r="X47" t="n">
-        <v>-58.5</v>
+        <v>34.6</v>
       </c>
       <c r="Y47" t="n">
-        <v>25.1</v>
+        <v>10.4</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>-58.5(±25.1)</t>
+          <t>34.6(±10.4)</t>
         </is>
       </c>
     </row>
@@ -4795,87 +4795,87 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>2020</v>
       </c>
       <c r="D48" t="n">
-        <v>5336</v>
+        <v>266</v>
       </c>
       <c r="E48" t="n">
-        <v>5421</v>
+        <v>256</v>
       </c>
       <c r="F48" t="n">
-        <v>5203</v>
+        <v>240</v>
       </c>
       <c r="G48" t="n">
-        <v>4514</v>
+        <v>213</v>
       </c>
       <c r="H48" t="n">
-        <v>4424</v>
+        <v>243</v>
       </c>
       <c r="I48" t="n">
-        <v>4415</v>
+        <v>229</v>
       </c>
       <c r="J48" t="n">
-        <v>4913.799999999998</v>
+        <v>241</v>
       </c>
       <c r="K48" t="n">
-        <v>428.8</v>
+        <v>14.4</v>
       </c>
       <c r="L48" t="n">
         <v>1.96</v>
       </c>
       <c r="M48" t="n">
-        <v>375.9</v>
+        <v>12.6</v>
       </c>
       <c r="N48" t="n">
-        <v>4537.899999999999</v>
+        <v>228.4</v>
       </c>
       <c r="O48" t="n">
-        <v>5289.699999999998</v>
+        <v>253.6</v>
       </c>
       <c r="P48" t="n">
-        <v>422.2</v>
+        <v>25</v>
       </c>
       <c r="Q48" t="n">
-        <v>375.9</v>
+        <v>12.6</v>
       </c>
       <c r="R48" t="n">
-        <v>8.6</v>
+        <v>10.4</v>
       </c>
       <c r="S48" t="n">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>4913.8 (±375.9)</t>
+          <t>241.0 (±12.6)</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>422.2 (±375.9)</t>
+          <t>25.0 (±12.6)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>8.6% (±7.7%)</t>
+          <t>10.4% (±5.5%)</t>
         </is>
       </c>
       <c r="W48" t="n">
-        <v>465992</v>
+        <v>83747</v>
       </c>
       <c r="X48" t="n">
-        <v>90.59999999999999</v>
+        <v>29.9</v>
       </c>
       <c r="Y48" t="n">
-        <v>80.7</v>
+        <v>15</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>90.6(±80.7)</t>
+          <t>29.9(±15.0)</t>
         </is>
       </c>
     </row>
@@ -4887,87 +4887,87 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>379</v>
+        <v>759</v>
       </c>
       <c r="E49" t="n">
-        <v>316</v>
+        <v>714</v>
       </c>
       <c r="F49" t="n">
-        <v>346</v>
+        <v>731</v>
       </c>
       <c r="G49" t="n">
-        <v>315</v>
+        <v>693</v>
       </c>
       <c r="H49" t="n">
-        <v>334</v>
+        <v>679</v>
       </c>
       <c r="I49" t="n">
-        <v>343</v>
+        <v>711</v>
       </c>
       <c r="J49" t="n">
-        <v>340.3999999999999</v>
+        <v>723.2</v>
       </c>
       <c r="K49" t="n">
-        <v>13.1</v>
+        <v>18</v>
       </c>
       <c r="L49" t="n">
         <v>1.96</v>
       </c>
       <c r="M49" t="n">
-        <v>11.5</v>
+        <v>15.8</v>
       </c>
       <c r="N49" t="n">
-        <v>328.8999999999999</v>
+        <v>707.4000000000001</v>
       </c>
       <c r="O49" t="n">
-        <v>351.8999999999999</v>
+        <v>739</v>
       </c>
       <c r="P49" t="n">
-        <v>38.6</v>
+        <v>35.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>11.5</v>
+        <v>15.8</v>
       </c>
       <c r="R49" t="n">
-        <v>11.3</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>340.4 (±11.5)</t>
+          <t>723.2 (±15.8)</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>38.6 (±11.5)</t>
+          <t>35.8 (±15.8)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>11.3% (±3.6%)</t>
+          <t>5.0% (±2.3%)</t>
         </is>
       </c>
       <c r="W49" t="n">
-        <v>111423</v>
+        <v>100614</v>
       </c>
       <c r="X49" t="n">
-        <v>34.6</v>
+        <v>35.6</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.4</v>
+        <v>15.7</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>34.6(±10.4)</t>
+          <t>35.6(±15.7)</t>
         </is>
       </c>
     </row>
@@ -4979,87 +4979,87 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>2020</v>
       </c>
       <c r="D50" t="n">
-        <v>266</v>
+        <v>9364</v>
       </c>
       <c r="E50" t="n">
-        <v>256</v>
+        <v>9312</v>
       </c>
       <c r="F50" t="n">
-        <v>240</v>
+        <v>9067</v>
       </c>
       <c r="G50" t="n">
-        <v>213</v>
+        <v>8848</v>
       </c>
       <c r="H50" t="n">
-        <v>243</v>
+        <v>8726</v>
       </c>
       <c r="I50" t="n">
-        <v>229</v>
+        <v>8577</v>
       </c>
       <c r="J50" t="n">
-        <v>241</v>
+        <v>9078.799999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>14.4</v>
+        <v>258.8</v>
       </c>
       <c r="L50" t="n">
         <v>1.96</v>
       </c>
       <c r="M50" t="n">
-        <v>12.6</v>
+        <v>226.8</v>
       </c>
       <c r="N50" t="n">
-        <v>228.4</v>
+        <v>8852</v>
       </c>
       <c r="O50" t="n">
-        <v>253.6</v>
+        <v>9305.599999999999</v>
       </c>
       <c r="P50" t="n">
-        <v>25</v>
+        <v>285.2</v>
       </c>
       <c r="Q50" t="n">
-        <v>12.6</v>
+        <v>226.8</v>
       </c>
       <c r="R50" t="n">
-        <v>10.4</v>
+        <v>3.1</v>
       </c>
       <c r="S50" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>241.0 (±12.6)</t>
+          <t>9078.8 (±226.8)</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>25.0 (±12.6)</t>
+          <t>285.2 (±226.8)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>10.4% (±5.5%)</t>
+          <t>3.1% (±2.5%)</t>
         </is>
       </c>
       <c r="W50" t="n">
-        <v>83747</v>
+        <v>2927008</v>
       </c>
       <c r="X50" t="n">
-        <v>29.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Y50" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>29.9(±15.0)</t>
+          <t>9.7(±7.8)</t>
         </is>
       </c>
     </row>
@@ -5071,87 +5071,87 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>2020</v>
       </c>
       <c r="D51" t="n">
-        <v>759</v>
+        <v>2271</v>
       </c>
       <c r="E51" t="n">
-        <v>714</v>
+        <v>2454</v>
       </c>
       <c r="F51" t="n">
-        <v>731</v>
+        <v>2429</v>
       </c>
       <c r="G51" t="n">
-        <v>693</v>
+        <v>2325</v>
       </c>
       <c r="H51" t="n">
-        <v>679</v>
+        <v>2289</v>
       </c>
       <c r="I51" t="n">
-        <v>711</v>
+        <v>2266</v>
       </c>
       <c r="J51" t="n">
-        <v>723.2</v>
+        <v>2404.6</v>
       </c>
       <c r="K51" t="n">
-        <v>18</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="L51" t="n">
         <v>1.96</v>
       </c>
       <c r="M51" t="n">
-        <v>15.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="N51" t="n">
-        <v>707.4000000000001</v>
+        <v>2338.5</v>
       </c>
       <c r="O51" t="n">
-        <v>739</v>
+        <v>2470.7</v>
       </c>
       <c r="P51" t="n">
-        <v>35.8</v>
+        <v>-133.6</v>
       </c>
       <c r="Q51" t="n">
-        <v>15.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>-5.6</v>
       </c>
       <c r="S51" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>723.2 (±15.8)</t>
+          <t>2404.6 (±66.1)</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>35.8 (±15.8)</t>
+          <t>-133.6 (±66.1)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>5.0% (±2.3%)</t>
+          <t>-5.6% (±2.5%)</t>
         </is>
       </c>
       <c r="W51" t="n">
-        <v>100614</v>
+        <v>886546</v>
       </c>
       <c r="X51" t="n">
-        <v>35.6</v>
+        <v>-15.1</v>
       </c>
       <c r="Y51" t="n">
-        <v>15.7</v>
+        <v>7.5</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>35.6(±15.7)</t>
+          <t>-15.1(±7.5)</t>
         </is>
       </c>
     </row>
@@ -5163,87 +5163,87 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>9364</v>
+        <v>53776</v>
       </c>
       <c r="E52" t="n">
-        <v>9312</v>
+        <v>53632</v>
       </c>
       <c r="F52" t="n">
-        <v>9067</v>
+        <v>50809</v>
       </c>
       <c r="G52" t="n">
-        <v>8848</v>
+        <v>49764</v>
       </c>
       <c r="H52" t="n">
-        <v>8726</v>
+        <v>49292</v>
       </c>
       <c r="I52" t="n">
-        <v>8577</v>
+        <v>47353</v>
       </c>
       <c r="J52" t="n">
-        <v>9078.799999999999</v>
+        <v>51241.19999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>258.8</v>
+        <v>2062.3</v>
       </c>
       <c r="L52" t="n">
         <v>1.96</v>
       </c>
       <c r="M52" t="n">
-        <v>226.8</v>
+        <v>1807.7</v>
       </c>
       <c r="N52" t="n">
-        <v>8852</v>
+        <v>49433.49999999999</v>
       </c>
       <c r="O52" t="n">
-        <v>9305.599999999999</v>
+        <v>53048.89999999999</v>
       </c>
       <c r="P52" t="n">
-        <v>285.2</v>
+        <v>2534.8</v>
       </c>
       <c r="Q52" t="n">
-        <v>226.8</v>
+        <v>1807.7</v>
       </c>
       <c r="R52" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="S52" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>9078.8 (±226.8)</t>
+          <t>51241.2 (±1807.7)</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>285.2 (±226.8)</t>
+          <t>2534.8 (±1807.7)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>3.1% (±2.5%)</t>
+          <t>4.9% (±3.5%)</t>
         </is>
       </c>
       <c r="W52" t="n">
-        <v>2927008</v>
+        <v>6327174</v>
       </c>
       <c r="X52" t="n">
-        <v>9.699999999999999</v>
+        <v>40.1</v>
       </c>
       <c r="Y52" t="n">
-        <v>7.8</v>
+        <v>28.5</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>9.7(±7.8)</t>
+          <t>40.1(±28.5)</t>
         </is>
       </c>
     </row>
@@ -5255,87 +5255,87 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>2020</v>
       </c>
       <c r="D53" t="n">
-        <v>2270</v>
+        <v>8787</v>
       </c>
       <c r="E53" t="n">
-        <v>2454</v>
+        <v>8186</v>
       </c>
       <c r="F53" t="n">
-        <v>2429</v>
+        <v>8221</v>
       </c>
       <c r="G53" t="n">
-        <v>2325</v>
+        <v>8050</v>
       </c>
       <c r="H53" t="n">
-        <v>2289</v>
+        <v>8115</v>
       </c>
       <c r="I53" t="n">
-        <v>2266</v>
+        <v>7862</v>
       </c>
       <c r="J53" t="n">
-        <v>2404.6</v>
+        <v>8258.799999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>75.40000000000001</v>
+        <v>126.9</v>
       </c>
       <c r="L53" t="n">
         <v>1.96</v>
       </c>
       <c r="M53" t="n">
-        <v>66.09999999999999</v>
+        <v>111.2</v>
       </c>
       <c r="N53" t="n">
-        <v>2338.5</v>
+        <v>8147.599999999999</v>
       </c>
       <c r="O53" t="n">
-        <v>2470.7</v>
+        <v>8370</v>
       </c>
       <c r="P53" t="n">
-        <v>-134.6</v>
+        <v>528.2</v>
       </c>
       <c r="Q53" t="n">
-        <v>66.09999999999999</v>
+        <v>111.2</v>
       </c>
       <c r="R53" t="n">
-        <v>-5.6</v>
+        <v>6.4</v>
       </c>
       <c r="S53" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>2404.6 (±66.1)</t>
+          <t>8258.8 (±111.2)</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-134.6 (±66.1)</t>
+          <t>528.2 (±111.2)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>-5.6% (±2.5%)</t>
+          <t>6.4% (±1.4%)</t>
         </is>
       </c>
       <c r="W53" t="n">
-        <v>886546</v>
+        <v>1760933</v>
       </c>
       <c r="X53" t="n">
-        <v>-15.2</v>
+        <v>30</v>
       </c>
       <c r="Y53" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>-15.2(±7.5)</t>
+          <t>30.0(±6.3)</t>
         </is>
       </c>
     </row>
@@ -5347,87 +5347,87 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>2020</v>
       </c>
       <c r="D54" t="n">
-        <v>53776</v>
+        <v>35735</v>
       </c>
       <c r="E54" t="n">
-        <v>53632</v>
+        <v>32160</v>
       </c>
       <c r="F54" t="n">
-        <v>50809</v>
+        <v>31845</v>
       </c>
       <c r="G54" t="n">
-        <v>49764</v>
+        <v>31120</v>
       </c>
       <c r="H54" t="n">
-        <v>49292</v>
+        <v>31875</v>
       </c>
       <c r="I54" t="n">
-        <v>47353</v>
+        <v>30949</v>
       </c>
       <c r="J54" t="n">
-        <v>51241.19999999999</v>
+        <v>32265.8</v>
       </c>
       <c r="K54" t="n">
-        <v>2062.3</v>
+        <v>469.7</v>
       </c>
       <c r="L54" t="n">
         <v>1.96</v>
       </c>
       <c r="M54" t="n">
-        <v>1807.7</v>
+        <v>411.7</v>
       </c>
       <c r="N54" t="n">
-        <v>49433.49999999999</v>
+        <v>31854.09999999999</v>
       </c>
       <c r="O54" t="n">
-        <v>53048.89999999999</v>
+        <v>32677.5</v>
       </c>
       <c r="P54" t="n">
-        <v>2534.8</v>
+        <v>3469.2</v>
       </c>
       <c r="Q54" t="n">
-        <v>1807.7</v>
+        <v>411.7</v>
       </c>
       <c r="R54" t="n">
-        <v>4.9</v>
+        <v>10.8</v>
       </c>
       <c r="S54" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>51241.2 (±1807.7)</t>
+          <t>32265.8 (±411.7)</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2534.8 (±1807.7)</t>
+          <t>3469.2 (±411.7)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>4.9% (±3.5%)</t>
+          <t>10.8% (±1.4%)</t>
         </is>
       </c>
       <c r="W54" t="n">
-        <v>6327174</v>
+        <v>3435218</v>
       </c>
       <c r="X54" t="n">
-        <v>40.1</v>
+        <v>101</v>
       </c>
       <c r="Y54" t="n">
-        <v>28.5</v>
+        <v>12</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>40.1(±28.5)</t>
+          <t>101.0(±12.0)</t>
         </is>
       </c>
     </row>
@@ -5439,87 +5439,87 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>8787</v>
+        <v>6742</v>
       </c>
       <c r="E55" t="n">
-        <v>8186</v>
+        <v>7241</v>
       </c>
       <c r="F55" t="n">
-        <v>8221</v>
+        <v>6847</v>
       </c>
       <c r="G55" t="n">
-        <v>8050</v>
+        <v>6658</v>
       </c>
       <c r="H55" t="n">
-        <v>8115</v>
+        <v>6650</v>
       </c>
       <c r="I55" t="n">
-        <v>7862</v>
+        <v>6309</v>
       </c>
       <c r="J55" t="n">
-        <v>8258.799999999999</v>
+        <v>6877.800000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>126.9</v>
+        <v>304.3</v>
       </c>
       <c r="L55" t="n">
         <v>1.96</v>
       </c>
       <c r="M55" t="n">
-        <v>111.2</v>
+        <v>266.7</v>
       </c>
       <c r="N55" t="n">
-        <v>8147.599999999999</v>
+        <v>6611.100000000001</v>
       </c>
       <c r="O55" t="n">
-        <v>8370</v>
+        <v>7144.500000000001</v>
       </c>
       <c r="P55" t="n">
-        <v>528.2</v>
+        <v>-135.8</v>
       </c>
       <c r="Q55" t="n">
-        <v>111.2</v>
+        <v>266.7</v>
       </c>
       <c r="R55" t="n">
-        <v>6.4</v>
+        <v>-2</v>
       </c>
       <c r="S55" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>8258.8 (±111.2)</t>
+          <t>6877.8 (±266.7)</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>528.2 (±111.2)</t>
+          <t>-135.8 (±266.7)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>6.4% (±1.4%)</t>
+          <t>-2.0% (±3.6%)</t>
         </is>
       </c>
       <c r="W55" t="n">
-        <v>1760933</v>
+        <v>954836</v>
       </c>
       <c r="X55" t="n">
-        <v>30</v>
+        <v>-14.2</v>
       </c>
       <c r="Y55" t="n">
-        <v>6.3</v>
+        <v>27.9</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>30.0(±6.3)</t>
+          <t>-14.2(±27.9)</t>
         </is>
       </c>
     </row>
@@ -5531,87 +5531,87 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>2020</v>
       </c>
       <c r="D56" t="n">
-        <v>35735</v>
+        <v>1705</v>
       </c>
       <c r="E56" t="n">
-        <v>32160</v>
+        <v>1917</v>
       </c>
       <c r="F56" t="n">
-        <v>31845</v>
+        <v>1783</v>
       </c>
       <c r="G56" t="n">
-        <v>31120</v>
+        <v>1752</v>
       </c>
       <c r="H56" t="n">
-        <v>31875</v>
+        <v>1664</v>
       </c>
       <c r="I56" t="n">
-        <v>30949</v>
+        <v>1571</v>
       </c>
       <c r="J56" t="n">
-        <v>32265.8</v>
+        <v>1763</v>
       </c>
       <c r="K56" t="n">
-        <v>469.7</v>
+        <v>116.3</v>
       </c>
       <c r="L56" t="n">
         <v>1.96</v>
       </c>
       <c r="M56" t="n">
-        <v>411.7</v>
+        <v>101.9</v>
       </c>
       <c r="N56" t="n">
-        <v>31854.09999999999</v>
+        <v>1661.1</v>
       </c>
       <c r="O56" t="n">
-        <v>32677.5</v>
+        <v>1864.9</v>
       </c>
       <c r="P56" t="n">
-        <v>3469.2</v>
+        <v>-58</v>
       </c>
       <c r="Q56" t="n">
-        <v>411.7</v>
+        <v>101.9</v>
       </c>
       <c r="R56" t="n">
-        <v>10.8</v>
+        <v>-3.3</v>
       </c>
       <c r="S56" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>32265.8 (±411.7)</t>
+          <t>1763.0 (±101.9)</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>3469.2 (±411.7)</t>
+          <t>-58.0 (±101.9)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>10.8% (±1.4%)</t>
+          <t>-3.3% (±5.3%)</t>
         </is>
       </c>
       <c r="W56" t="n">
-        <v>3435218</v>
+        <v>388680</v>
       </c>
       <c r="X56" t="n">
-        <v>101</v>
+        <v>-14.9</v>
       </c>
       <c r="Y56" t="n">
-        <v>12</v>
+        <v>26.2</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>101.0(±12.0)</t>
+          <t>-14.9(±26.2)</t>
         </is>
       </c>
     </row>
@@ -5623,87 +5623,87 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>2020</v>
       </c>
       <c r="D57" t="n">
-        <v>6742</v>
+        <v>32187</v>
       </c>
       <c r="E57" t="n">
-        <v>7241</v>
+        <v>28777</v>
       </c>
       <c r="F57" t="n">
-        <v>6847</v>
+        <v>28117</v>
       </c>
       <c r="G57" t="n">
-        <v>6658</v>
+        <v>27747</v>
       </c>
       <c r="H57" t="n">
-        <v>6650</v>
+        <v>28101</v>
       </c>
       <c r="I57" t="n">
-        <v>6309</v>
+        <v>27807</v>
       </c>
       <c r="J57" t="n">
-        <v>6877.800000000001</v>
+        <v>28657</v>
       </c>
       <c r="K57" t="n">
-        <v>304.3</v>
+        <v>365.7</v>
       </c>
       <c r="L57" t="n">
         <v>1.96</v>
       </c>
       <c r="M57" t="n">
-        <v>266.7</v>
+        <v>320.6</v>
       </c>
       <c r="N57" t="n">
-        <v>6611.100000000001</v>
+        <v>28336.4</v>
       </c>
       <c r="O57" t="n">
-        <v>7144.500000000001</v>
+        <v>28977.6</v>
       </c>
       <c r="P57" t="n">
-        <v>-135.8</v>
+        <v>3530</v>
       </c>
       <c r="Q57" t="n">
-        <v>266.7</v>
+        <v>320.6</v>
       </c>
       <c r="R57" t="n">
-        <v>-2</v>
+        <v>12.3</v>
       </c>
       <c r="S57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>28657.0 (±320.6)</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>3530.0 (±320.6)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>12.3% (±1.2%)</t>
+        </is>
+      </c>
+      <c r="W57" t="n">
+        <v>8853079</v>
+      </c>
+      <c r="X57" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="Y57" t="n">
         <v>3.6</v>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>6877.8 (±266.7)</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>-135.8 (±266.7)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>-2.0% (±3.6%)</t>
-        </is>
-      </c>
-      <c r="W57" t="n">
-        <v>954836</v>
-      </c>
-      <c r="X57" t="n">
-        <v>-14.2</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>27.9</v>
-      </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>-14.2(±27.9)</t>
+          <t>39.9(±3.6)</t>
         </is>
       </c>
     </row>
@@ -5715,87 +5715,87 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>2020</v>
       </c>
       <c r="D58" t="n">
-        <v>1705</v>
+        <v>4007</v>
       </c>
       <c r="E58" t="n">
-        <v>1917</v>
+        <v>4366</v>
       </c>
       <c r="F58" t="n">
-        <v>1783</v>
+        <v>3992</v>
       </c>
       <c r="G58" t="n">
-        <v>1752</v>
+        <v>3905</v>
       </c>
       <c r="H58" t="n">
-        <v>1664</v>
+        <v>3805</v>
       </c>
       <c r="I58" t="n">
-        <v>1571</v>
+        <v>3480</v>
       </c>
       <c r="J58" t="n">
-        <v>1763</v>
+        <v>3990.399999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>116.3</v>
+        <v>286.6</v>
       </c>
       <c r="L58" t="n">
         <v>1.96</v>
       </c>
       <c r="M58" t="n">
-        <v>101.9</v>
+        <v>251.2</v>
       </c>
       <c r="N58" t="n">
-        <v>1661.1</v>
+        <v>3739.199999999999</v>
       </c>
       <c r="O58" t="n">
-        <v>1864.9</v>
+        <v>4241.599999999999</v>
       </c>
       <c r="P58" t="n">
-        <v>-58</v>
+        <v>16.6</v>
       </c>
       <c r="Q58" t="n">
-        <v>101.9</v>
+        <v>251.2</v>
       </c>
       <c r="R58" t="n">
-        <v>-3.3</v>
+        <v>0.4</v>
       </c>
       <c r="S58" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>1763.0 (±101.9)</t>
+          <t>3990.4 (±251.2)</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>-58.0 (±101.9)</t>
+          <t>16.6 (±251.2)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>-3.3% (±5.3%)</t>
+          <t>0.4% (±5.9%)</t>
         </is>
       </c>
       <c r="W58" t="n">
-        <v>388680</v>
+        <v>1602513</v>
       </c>
       <c r="X58" t="n">
-        <v>-14.9</v>
+        <v>1</v>
       </c>
       <c r="Y58" t="n">
-        <v>26.2</v>
+        <v>15.7</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>-14.9(±26.2)</t>
+          <t>1.0(±15.7)</t>
         </is>
       </c>
     </row>
@@ -5807,271 +5807,271 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>2020</v>
       </c>
       <c r="D59" t="n">
-        <v>32187</v>
+        <v>3930</v>
       </c>
       <c r="E59" t="n">
-        <v>28777</v>
+        <v>4031</v>
       </c>
       <c r="F59" t="n">
-        <v>28117</v>
+        <v>3769</v>
       </c>
       <c r="G59" t="n">
-        <v>27747</v>
+        <v>3902</v>
       </c>
       <c r="H59" t="n">
-        <v>28101</v>
+        <v>3778</v>
       </c>
       <c r="I59" t="n">
-        <v>27807</v>
+        <v>3686</v>
       </c>
       <c r="J59" t="n">
-        <v>28657</v>
+        <v>3907.6</v>
       </c>
       <c r="K59" t="n">
-        <v>365.7</v>
+        <v>120.6</v>
       </c>
       <c r="L59" t="n">
         <v>1.96</v>
       </c>
       <c r="M59" t="n">
-        <v>320.6</v>
+        <v>105.7</v>
       </c>
       <c r="N59" t="n">
-        <v>28336.4</v>
+        <v>3801.9</v>
       </c>
       <c r="O59" t="n">
-        <v>28977.6</v>
+        <v>4013.3</v>
       </c>
       <c r="P59" t="n">
-        <v>3530</v>
+        <v>22.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>320.6</v>
+        <v>105.7</v>
       </c>
       <c r="R59" t="n">
-        <v>12.3</v>
+        <v>0.6</v>
       </c>
       <c r="S59" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>28657.0 (±320.6)</t>
+          <t>3907.6 (±105.7)</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>3530.0 (±320.6)</t>
+          <t>22.4 (±105.7)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>12.3% (±1.2%)</t>
+          <t>0.6% (±2.7%)</t>
         </is>
       </c>
       <c r="W59" t="n">
-        <v>8853079</v>
+        <v>1512422</v>
       </c>
       <c r="X59" t="n">
-        <v>39.9</v>
+        <v>1.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>39.9(±3.6)</t>
+          <t>1.5(±7.0)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>2020</v>
       </c>
       <c r="D60" t="n">
-        <v>4007</v>
+        <v>9255</v>
       </c>
       <c r="E60" t="n">
-        <v>4366</v>
+        <v>8875</v>
       </c>
       <c r="F60" t="n">
-        <v>3992</v>
+        <v>8602</v>
       </c>
       <c r="G60" t="n">
-        <v>3905</v>
+        <v>8347</v>
       </c>
       <c r="H60" t="n">
-        <v>3805</v>
+        <v>8582</v>
       </c>
       <c r="I60" t="n">
-        <v>3480</v>
+        <v>8358</v>
       </c>
       <c r="J60" t="n">
-        <v>3990.399999999999</v>
+        <v>8718.4</v>
       </c>
       <c r="K60" t="n">
-        <v>286.6</v>
+        <v>193.6</v>
       </c>
       <c r="L60" t="n">
         <v>1.96</v>
       </c>
       <c r="M60" t="n">
-        <v>251.2</v>
+        <v>169.7</v>
       </c>
       <c r="N60" t="n">
-        <v>3739.199999999999</v>
+        <v>8548.699999999999</v>
       </c>
       <c r="O60" t="n">
-        <v>4241.599999999999</v>
+        <v>8888.1</v>
       </c>
       <c r="P60" t="n">
-        <v>16.6</v>
+        <v>536.6</v>
       </c>
       <c r="Q60" t="n">
-        <v>251.2</v>
+        <v>169.7</v>
       </c>
       <c r="R60" t="n">
-        <v>0.4</v>
+        <v>6.2</v>
       </c>
       <c r="S60" t="n">
-        <v>5.9</v>
+        <v>2.1</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>3990.4 (±251.2)</t>
+          <t>8718.4 (±169.7)</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16.6 (±251.2)</t>
+          <t>536.6 (±169.7)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>0.4% (±5.9%)</t>
+          <t>6.2% (±2.1%)</t>
         </is>
       </c>
       <c r="W60" t="n">
-        <v>1602513</v>
+        <v>3149418</v>
       </c>
       <c r="X60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Y60" t="n">
-        <v>15.7</v>
+        <v>5.4</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>1.0(±15.7)</t>
+          <t>17.0(±5.4)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>2020</v>
       </c>
       <c r="D61" t="n">
-        <v>3927</v>
+        <v>12680</v>
       </c>
       <c r="E61" t="n">
-        <v>4031</v>
+        <v>12880</v>
       </c>
       <c r="F61" t="n">
-        <v>3769</v>
+        <v>12151</v>
       </c>
       <c r="G61" t="n">
-        <v>3902</v>
+        <v>11810</v>
       </c>
       <c r="H61" t="n">
-        <v>3778</v>
+        <v>11712</v>
       </c>
       <c r="I61" t="n">
-        <v>3686</v>
+        <v>11364</v>
       </c>
       <c r="J61" t="n">
-        <v>3907.6</v>
+        <v>12233.8</v>
       </c>
       <c r="K61" t="n">
-        <v>120.6</v>
+        <v>513.7</v>
       </c>
       <c r="L61" t="n">
         <v>1.96</v>
       </c>
       <c r="M61" t="n">
-        <v>105.7</v>
+        <v>450.3</v>
       </c>
       <c r="N61" t="n">
-        <v>3801.9</v>
+        <v>11783.5</v>
       </c>
       <c r="O61" t="n">
-        <v>4013.3</v>
+        <v>12684.1</v>
       </c>
       <c r="P61" t="n">
-        <v>19.4</v>
+        <v>446.2</v>
       </c>
       <c r="Q61" t="n">
-        <v>105.7</v>
+        <v>450.3</v>
       </c>
       <c r="R61" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="S61" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>3907.6 (±105.7)</t>
+          <t>12233.8 (±450.3)</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>19.4 (±105.7)</t>
+          <t>446.2 (±450.3)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>0.5% (±2.7%)</t>
+          <t>3.6% (±3.6%)</t>
         </is>
       </c>
       <c r="W61" t="n">
-        <v>1512422</v>
+        <v>3823073</v>
       </c>
       <c r="X61" t="n">
-        <v>1.3</v>
+        <v>11.7</v>
       </c>
       <c r="Y61" t="n">
-        <v>7</v>
+        <v>11.7</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>1.3(±7.0)</t>
+          <t>11.7(±11.7)</t>
         </is>
       </c>
     </row>
@@ -6083,87 +6083,87 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>9255</v>
+        <v>19849</v>
       </c>
       <c r="E62" t="n">
-        <v>8875</v>
+        <v>17125</v>
       </c>
       <c r="F62" t="n">
-        <v>8602</v>
+        <v>16808</v>
       </c>
       <c r="G62" t="n">
-        <v>8347</v>
+        <v>16204</v>
       </c>
       <c r="H62" t="n">
-        <v>8582</v>
+        <v>16293</v>
       </c>
       <c r="I62" t="n">
-        <v>8358</v>
+        <v>15587</v>
       </c>
       <c r="J62" t="n">
-        <v>8718.4</v>
+        <v>16732.2</v>
       </c>
       <c r="K62" t="n">
-        <v>193.6</v>
+        <v>529.7</v>
       </c>
       <c r="L62" t="n">
         <v>1.96</v>
       </c>
       <c r="M62" t="n">
-        <v>169.7</v>
+        <v>464.3</v>
       </c>
       <c r="N62" t="n">
-        <v>8548.699999999999</v>
+        <v>16267.9</v>
       </c>
       <c r="O62" t="n">
-        <v>8888.1</v>
+        <v>17196.5</v>
       </c>
       <c r="P62" t="n">
-        <v>536.6</v>
+        <v>3116.8</v>
       </c>
       <c r="Q62" t="n">
-        <v>169.7</v>
+        <v>464.3</v>
       </c>
       <c r="R62" t="n">
-        <v>6.2</v>
+        <v>18.6</v>
       </c>
       <c r="S62" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>8718.4 (±169.7)</t>
+          <t>16732.2 (±464.3)</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>536.6 (±169.7)</t>
+          <t>3116.8 (±464.3)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>6.2% (±2.1%)</t>
+          <t>18.6% (±3.2%)</t>
         </is>
       </c>
       <c r="W62" t="n">
-        <v>3149418</v>
+        <v>2483521</v>
       </c>
       <c r="X62" t="n">
-        <v>17</v>
+        <v>125.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>5.4</v>
+        <v>18.7</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>17.0(±5.4)</t>
+          <t>125.5(±18.7)</t>
         </is>
       </c>
     </row>
@@ -6175,87 +6175,87 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>12680</v>
+        <v>6716</v>
       </c>
       <c r="E63" t="n">
-        <v>12880</v>
+        <v>7224</v>
       </c>
       <c r="F63" t="n">
-        <v>12151</v>
+        <v>6682</v>
       </c>
       <c r="G63" t="n">
-        <v>11810</v>
+        <v>6640</v>
       </c>
       <c r="H63" t="n">
-        <v>11712</v>
+        <v>6689</v>
       </c>
       <c r="I63" t="n">
-        <v>11364</v>
+        <v>6181</v>
       </c>
       <c r="J63" t="n">
-        <v>12233.8</v>
+        <v>6830.400000000002</v>
       </c>
       <c r="K63" t="n">
-        <v>513.7</v>
+        <v>330.6</v>
       </c>
       <c r="L63" t="n">
         <v>1.96</v>
       </c>
       <c r="M63" t="n">
-        <v>450.3</v>
+        <v>289.8</v>
       </c>
       <c r="N63" t="n">
-        <v>11783.5</v>
+        <v>6540.600000000002</v>
       </c>
       <c r="O63" t="n">
-        <v>12684.1</v>
+        <v>7120.200000000003</v>
       </c>
       <c r="P63" t="n">
-        <v>446.2</v>
+        <v>-114.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>450.3</v>
+        <v>289.8</v>
       </c>
       <c r="R63" t="n">
-        <v>3.6</v>
+        <v>-1.7</v>
       </c>
       <c r="S63" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>12233.8 (±450.3)</t>
+          <t>6830.4 (±289.8)</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>446.2 (±450.3)</t>
+          <t>-114.4 (±289.8)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>3.6% (±3.6%)</t>
+          <t>-1.7% (±4.0%)</t>
         </is>
       </c>
       <c r="W63" t="n">
-        <v>3823073</v>
+        <v>1411276</v>
       </c>
       <c r="X63" t="n">
-        <v>11.7</v>
+        <v>-8.1</v>
       </c>
       <c r="Y63" t="n">
-        <v>11.7</v>
+        <v>20.5</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>11.7(±11.7)</t>
+          <t>-8.1(±20.5)</t>
         </is>
       </c>
     </row>
@@ -6267,87 +6267,87 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>2020</v>
       </c>
       <c r="D64" t="n">
-        <v>19849</v>
+        <v>717</v>
       </c>
       <c r="E64" t="n">
-        <v>17125</v>
+        <v>631</v>
       </c>
       <c r="F64" t="n">
-        <v>16808</v>
+        <v>575</v>
       </c>
       <c r="G64" t="n">
-        <v>16204</v>
+        <v>636</v>
       </c>
       <c r="H64" t="n">
-        <v>16293</v>
+        <v>591</v>
       </c>
       <c r="I64" t="n">
-        <v>15587</v>
+        <v>625</v>
       </c>
       <c r="J64" t="n">
-        <v>16732.2</v>
+        <v>621.9999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>529.7</v>
+        <v>24.1</v>
       </c>
       <c r="L64" t="n">
         <v>1.96</v>
       </c>
       <c r="M64" t="n">
-        <v>464.3</v>
+        <v>21.1</v>
       </c>
       <c r="N64" t="n">
-        <v>16267.9</v>
+        <v>600.8999999999999</v>
       </c>
       <c r="O64" t="n">
-        <v>17196.5</v>
+        <v>643.0999999999999</v>
       </c>
       <c r="P64" t="n">
-        <v>3116.8</v>
+        <v>95</v>
       </c>
       <c r="Q64" t="n">
-        <v>464.3</v>
+        <v>21.1</v>
       </c>
       <c r="R64" t="n">
-        <v>18.6</v>
+        <v>15.3</v>
       </c>
       <c r="S64" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>16732.2 (±464.3)</t>
+          <t>622.0 (±21.1)</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>3116.8 (±464.3)</t>
+          <t>95.0 (±21.1)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>18.6% (±3.2%)</t>
+          <t>15.3% (±3.8%)</t>
         </is>
       </c>
       <c r="W64" t="n">
-        <v>2483521</v>
+        <v>268729</v>
       </c>
       <c r="X64" t="n">
-        <v>125.5</v>
+        <v>35.4</v>
       </c>
       <c r="Y64" t="n">
-        <v>18.7</v>
+        <v>7.8</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>125.5(±18.7)</t>
+          <t>35.4(±7.8)</t>
         </is>
       </c>
     </row>
@@ -6359,87 +6359,87 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>6716</v>
+        <v>15103</v>
       </c>
       <c r="E65" t="n">
-        <v>7224</v>
+        <v>15183</v>
       </c>
       <c r="F65" t="n">
-        <v>6682</v>
+        <v>14242</v>
       </c>
       <c r="G65" t="n">
-        <v>6640</v>
+        <v>14077</v>
       </c>
       <c r="H65" t="n">
-        <v>6689</v>
+        <v>13957</v>
       </c>
       <c r="I65" t="n">
-        <v>6181</v>
+        <v>13573</v>
       </c>
       <c r="J65" t="n">
-        <v>6830.400000000002</v>
+        <v>14502.4</v>
       </c>
       <c r="K65" t="n">
-        <v>330.6</v>
+        <v>535.8</v>
       </c>
       <c r="L65" t="n">
         <v>1.96</v>
       </c>
       <c r="M65" t="n">
-        <v>289.8</v>
+        <v>469.6</v>
       </c>
       <c r="N65" t="n">
-        <v>6540.600000000002</v>
+        <v>14032.8</v>
       </c>
       <c r="O65" t="n">
-        <v>7120.200000000003</v>
+        <v>14972</v>
       </c>
       <c r="P65" t="n">
-        <v>-114.4</v>
+        <v>600.6</v>
       </c>
       <c r="Q65" t="n">
-        <v>289.8</v>
+        <v>469.6</v>
       </c>
       <c r="R65" t="n">
-        <v>-1.7</v>
+        <v>4.1</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>6830.4 (±289.8)</t>
+          <t>14502.4 (±469.6)</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>-114.4 (±289.8)</t>
+          <t>600.6 (±469.6)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>-1.7% (±4.0%)</t>
+          <t>4.1% (±3.2%)</t>
         </is>
       </c>
       <c r="W65" t="n">
-        <v>1411276</v>
+        <v>3754028</v>
       </c>
       <c r="X65" t="n">
-        <v>-8.1</v>
+        <v>16</v>
       </c>
       <c r="Y65" t="n">
-        <v>20.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>-8.1(±20.5)</t>
+          <t>16.0(±12.5)</t>
         </is>
       </c>
     </row>
@@ -6451,87 +6451,87 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>2020</v>
       </c>
       <c r="D66" t="n">
-        <v>717</v>
+        <v>5570</v>
       </c>
       <c r="E66" t="n">
-        <v>631</v>
+        <v>6456</v>
       </c>
       <c r="F66" t="n">
-        <v>575</v>
+        <v>6210</v>
       </c>
       <c r="G66" t="n">
-        <v>636</v>
+        <v>5873</v>
       </c>
       <c r="H66" t="n">
-        <v>591</v>
+        <v>5887</v>
       </c>
       <c r="I66" t="n">
-        <v>625</v>
+        <v>5599</v>
       </c>
       <c r="J66" t="n">
-        <v>621.9999999999999</v>
+        <v>6122.6</v>
       </c>
       <c r="K66" t="n">
-        <v>24.1</v>
+        <v>297.2</v>
       </c>
       <c r="L66" t="n">
         <v>1.96</v>
       </c>
       <c r="M66" t="n">
-        <v>21.1</v>
+        <v>260.5</v>
       </c>
       <c r="N66" t="n">
-        <v>600.8999999999999</v>
+        <v>5862.1</v>
       </c>
       <c r="O66" t="n">
-        <v>643.0999999999999</v>
+        <v>6383.1</v>
       </c>
       <c r="P66" t="n">
-        <v>95</v>
+        <v>-552.6</v>
       </c>
       <c r="Q66" t="n">
-        <v>21.1</v>
+        <v>260.5</v>
       </c>
       <c r="R66" t="n">
-        <v>15.3</v>
+        <v>-9</v>
       </c>
       <c r="S66" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>622.0 (±21.1)</t>
+          <t>6122.6 (±260.5)</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>95.0 (±21.1)</t>
+          <t>-552.6 (±260.5)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>15.3% (±3.8%)</t>
+          <t>-9.0% (±3.7%)</t>
         </is>
       </c>
       <c r="W66" t="n">
-        <v>268729</v>
+        <v>1900863</v>
       </c>
       <c r="X66" t="n">
-        <v>35.4</v>
+        <v>-29.1</v>
       </c>
       <c r="Y66" t="n">
-        <v>7.8</v>
+        <v>13.7</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>35.4(±7.8)</t>
+          <t>-29.1(±13.7)</t>
         </is>
       </c>
     </row>
@@ -6543,87 +6543,87 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>15103</v>
+        <v>2350</v>
       </c>
       <c r="E67" t="n">
-        <v>15183</v>
+        <v>2344</v>
       </c>
       <c r="F67" t="n">
-        <v>14242</v>
+        <v>2248</v>
       </c>
       <c r="G67" t="n">
-        <v>14077</v>
+        <v>2182</v>
       </c>
       <c r="H67" t="n">
-        <v>13957</v>
+        <v>2178</v>
       </c>
       <c r="I67" t="n">
-        <v>13573</v>
+        <v>2045</v>
       </c>
       <c r="J67" t="n">
-        <v>14502.4</v>
+        <v>2237</v>
       </c>
       <c r="K67" t="n">
-        <v>535.8</v>
+        <v>97.8</v>
       </c>
       <c r="L67" t="n">
         <v>1.96</v>
       </c>
       <c r="M67" t="n">
-        <v>469.6</v>
+        <v>85.7</v>
       </c>
       <c r="N67" t="n">
-        <v>14032.8</v>
+        <v>2151.3</v>
       </c>
       <c r="O67" t="n">
-        <v>14972</v>
+        <v>2322.7</v>
       </c>
       <c r="P67" t="n">
-        <v>600.6</v>
+        <v>113</v>
       </c>
       <c r="Q67" t="n">
-        <v>469.6</v>
+        <v>85.7</v>
       </c>
       <c r="R67" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="S67" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>14502.4 (±469.6)</t>
+          <t>2237.0 (±85.7)</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>600.6 (±469.6)</t>
+          <t>113.0 (±85.7)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>4.1% (±3.2%)</t>
+          <t>5.1% (±3.9%)</t>
         </is>
       </c>
       <c r="W67" t="n">
-        <v>3754028</v>
+        <v>439984</v>
       </c>
       <c r="X67" t="n">
-        <v>16</v>
+        <v>25.7</v>
       </c>
       <c r="Y67" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>16.0(±12.5)</t>
+          <t>25.7(±19.5)</t>
         </is>
       </c>
     </row>
@@ -6635,87 +6635,87 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>2020</v>
       </c>
       <c r="D68" t="n">
-        <v>5570</v>
+        <v>5463</v>
       </c>
       <c r="E68" t="n">
-        <v>6456</v>
+        <v>6078</v>
       </c>
       <c r="F68" t="n">
-        <v>6210</v>
+        <v>5743</v>
       </c>
       <c r="G68" t="n">
-        <v>5873</v>
+        <v>5651</v>
       </c>
       <c r="H68" t="n">
-        <v>5887</v>
+        <v>5564</v>
       </c>
       <c r="I68" t="n">
-        <v>5599</v>
+        <v>5064</v>
       </c>
       <c r="J68" t="n">
-        <v>6122.6</v>
+        <v>5740.799999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>297.2</v>
+        <v>328.1</v>
       </c>
       <c r="L68" t="n">
         <v>1.96</v>
       </c>
       <c r="M68" t="n">
-        <v>260.5</v>
+        <v>287.6</v>
       </c>
       <c r="N68" t="n">
-        <v>5862.1</v>
+        <v>5453.199999999999</v>
       </c>
       <c r="O68" t="n">
-        <v>6383.1</v>
+        <v>6028.4</v>
       </c>
       <c r="P68" t="n">
-        <v>-552.6</v>
+        <v>-277.8</v>
       </c>
       <c r="Q68" t="n">
-        <v>260.5</v>
+        <v>287.6</v>
       </c>
       <c r="R68" t="n">
-        <v>-9</v>
+        <v>-4.8</v>
       </c>
       <c r="S68" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>6122.6 (±260.5)</t>
+          <t>5740.8 (±287.6)</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>-552.6 (±260.5)</t>
+          <t>-277.8 (±287.6)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>-9.0% (±3.7%)</t>
+          <t>-4.8% (±4.6%)</t>
         </is>
       </c>
       <c r="W68" t="n">
-        <v>1900863</v>
+        <v>1745132</v>
       </c>
       <c r="X68" t="n">
-        <v>-29.1</v>
+        <v>-15.9</v>
       </c>
       <c r="Y68" t="n">
-        <v>13.7</v>
+        <v>16.5</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>-29.1(±13.7)</t>
+          <t>-15.9(±16.5)</t>
         </is>
       </c>
     </row>
@@ -6727,87 +6727,87 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>2020</v>
       </c>
       <c r="D69" t="n">
-        <v>2350</v>
+        <v>69811</v>
       </c>
       <c r="E69" t="n">
-        <v>2344</v>
+        <v>72287</v>
       </c>
       <c r="F69" t="n">
-        <v>2248</v>
+        <v>69972</v>
       </c>
       <c r="G69" t="n">
-        <v>2182</v>
+        <v>68790</v>
       </c>
       <c r="H69" t="n">
-        <v>2178</v>
+        <v>67562</v>
       </c>
       <c r="I69" t="n">
-        <v>2045</v>
+        <v>65552</v>
       </c>
       <c r="J69" t="n">
-        <v>2237</v>
+        <v>70241.39999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>97.8</v>
+        <v>2263.2</v>
       </c>
       <c r="L69" t="n">
         <v>1.96</v>
       </c>
       <c r="M69" t="n">
-        <v>85.7</v>
+        <v>1983.8</v>
       </c>
       <c r="N69" t="n">
-        <v>2151.3</v>
+        <v>68257.59999999998</v>
       </c>
       <c r="O69" t="n">
-        <v>2322.7</v>
+        <v>72225.19999999998</v>
       </c>
       <c r="P69" t="n">
-        <v>113</v>
+        <v>-430.4</v>
       </c>
       <c r="Q69" t="n">
-        <v>85.7</v>
+        <v>1983.8</v>
       </c>
       <c r="R69" t="n">
-        <v>5.1</v>
+        <v>-0.6</v>
       </c>
       <c r="S69" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>2237.0 (±85.7)</t>
+          <t>70241.4 (±1983.8)</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>113.0 (±85.7)</t>
+          <t>-430.4 (±1983.8)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>5.1% (±3.9%)</t>
+          <t>-0.6% (±2.7%)</t>
         </is>
       </c>
       <c r="W69" t="n">
-        <v>439984</v>
+        <v>21517650</v>
       </c>
       <c r="X69" t="n">
-        <v>25.7</v>
+        <v>-2</v>
       </c>
       <c r="Y69" t="n">
-        <v>19.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>25.7(±19.5)</t>
+          <t>-2.0(±9.2)</t>
         </is>
       </c>
     </row>
@@ -6819,87 +6819,87 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>2020</v>
       </c>
       <c r="D70" t="n">
-        <v>5463</v>
+        <v>12182</v>
       </c>
       <c r="E70" t="n">
-        <v>6078</v>
+        <v>11816</v>
       </c>
       <c r="F70" t="n">
-        <v>5743</v>
+        <v>11530</v>
       </c>
       <c r="G70" t="n">
-        <v>5651</v>
+        <v>11637</v>
       </c>
       <c r="H70" t="n">
-        <v>5564</v>
+        <v>11480</v>
       </c>
       <c r="I70" t="n">
-        <v>5064</v>
+        <v>11419</v>
       </c>
       <c r="J70" t="n">
-        <v>5740.799999999999</v>
+        <v>11798</v>
       </c>
       <c r="K70" t="n">
-        <v>328.1</v>
+        <v>139.5</v>
       </c>
       <c r="L70" t="n">
         <v>1.96</v>
       </c>
       <c r="M70" t="n">
-        <v>287.6</v>
+        <v>122.3</v>
       </c>
       <c r="N70" t="n">
-        <v>5453.199999999999</v>
+        <v>11675.7</v>
       </c>
       <c r="O70" t="n">
-        <v>6028.4</v>
+        <v>11920.3</v>
       </c>
       <c r="P70" t="n">
-        <v>-277.8</v>
+        <v>384</v>
       </c>
       <c r="Q70" t="n">
-        <v>287.6</v>
+        <v>122.3</v>
       </c>
       <c r="R70" t="n">
-        <v>-4.8</v>
+        <v>3.3</v>
       </c>
       <c r="S70" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>5740.8 (±287.6)</t>
+          <t>11798.0 (±122.3)</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>-277.8 (±287.6)</t>
+          <t>384.0 (±122.3)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>-4.8% (±4.6%)</t>
+          <t>3.3% (±1.1%)</t>
         </is>
       </c>
       <c r="W70" t="n">
-        <v>1745132</v>
+        <v>3797626</v>
       </c>
       <c r="X70" t="n">
-        <v>-15.9</v>
+        <v>10.1</v>
       </c>
       <c r="Y70" t="n">
-        <v>16.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>-15.9(±16.5)</t>
+          <t>10.1(±3.2)</t>
         </is>
       </c>
     </row>
@@ -6911,87 +6911,87 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>2020</v>
       </c>
       <c r="D71" t="n">
-        <v>69811</v>
+        <v>22017</v>
       </c>
       <c r="E71" t="n">
-        <v>72287</v>
+        <v>23851</v>
       </c>
       <c r="F71" t="n">
-        <v>69972</v>
+        <v>22517</v>
       </c>
       <c r="G71" t="n">
-        <v>68790</v>
+        <v>21719</v>
       </c>
       <c r="H71" t="n">
-        <v>67562</v>
+        <v>21973</v>
       </c>
       <c r="I71" t="n">
-        <v>65552</v>
+        <v>20141</v>
       </c>
       <c r="J71" t="n">
-        <v>70241.39999999998</v>
+        <v>22529</v>
       </c>
       <c r="K71" t="n">
-        <v>2263.2</v>
+        <v>1201.7</v>
       </c>
       <c r="L71" t="n">
         <v>1.96</v>
       </c>
       <c r="M71" t="n">
-        <v>1983.8</v>
+        <v>1053.3</v>
       </c>
       <c r="N71" t="n">
-        <v>68257.59999999998</v>
+        <v>21475.7</v>
       </c>
       <c r="O71" t="n">
-        <v>72225.19999999998</v>
+        <v>23582.3</v>
       </c>
       <c r="P71" t="n">
-        <v>-430.4</v>
+        <v>-512</v>
       </c>
       <c r="Q71" t="n">
-        <v>1983.8</v>
+        <v>1053.3</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.6</v>
+        <v>-2.3</v>
       </c>
       <c r="S71" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>70241.4 (±1983.8)</t>
+          <t>22529.0 (±1053.3)</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>-430.4 (±1983.8)</t>
+          <t>-512.0 (±1053.3)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>-0.6% (±2.7%)</t>
+          <t>-2.3% (±4.3%)</t>
         </is>
       </c>
       <c r="W71" t="n">
-        <v>21517650</v>
+        <v>3474333</v>
       </c>
       <c r="X71" t="n">
-        <v>-2</v>
+        <v>-14.7</v>
       </c>
       <c r="Y71" t="n">
-        <v>9.199999999999999</v>
+        <v>30.3</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>-2.0(±9.2)</t>
+          <t>-14.7(±30.3)</t>
         </is>
       </c>
     </row>
@@ -7003,87 +7003,87 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>2020</v>
       </c>
       <c r="D72" t="n">
-        <v>12182</v>
+        <v>268</v>
       </c>
       <c r="E72" t="n">
-        <v>11816</v>
+        <v>233</v>
       </c>
       <c r="F72" t="n">
-        <v>11530</v>
+        <v>236</v>
       </c>
       <c r="G72" t="n">
-        <v>11637</v>
+        <v>233</v>
       </c>
       <c r="H72" t="n">
-        <v>11480</v>
+        <v>254</v>
       </c>
       <c r="I72" t="n">
-        <v>11419</v>
+        <v>277</v>
       </c>
       <c r="J72" t="n">
-        <v>11798</v>
+        <v>253.0000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>139.5</v>
+        <v>17.1</v>
       </c>
       <c r="L72" t="n">
         <v>1.96</v>
       </c>
       <c r="M72" t="n">
-        <v>122.3</v>
+        <v>15</v>
       </c>
       <c r="N72" t="n">
-        <v>11675.7</v>
+        <v>238.0000000000001</v>
       </c>
       <c r="O72" t="n">
-        <v>11920.3</v>
+        <v>268.0000000000001</v>
       </c>
       <c r="P72" t="n">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="Q72" t="n">
-        <v>122.3</v>
+        <v>15</v>
       </c>
       <c r="R72" t="n">
-        <v>3.3</v>
+        <v>5.9</v>
       </c>
       <c r="S72" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>11798.0 (±122.3)</t>
+          <t>253.0 (±15.0)</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>384.0 (±122.3)</t>
+          <t>15.0 (±15.0)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>3.3% (±1.1%)</t>
+          <t>5.9% (±5.9%)</t>
         </is>
       </c>
       <c r="W72" t="n">
-        <v>3797626</v>
+        <v>111401</v>
       </c>
       <c r="X72" t="n">
-        <v>10.1</v>
+        <v>13.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>3.2</v>
+        <v>13.4</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>10.1(±3.2)</t>
+          <t>13.5(±13.4)</t>
         </is>
       </c>
     </row>
@@ -7095,87 +7095,87 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>2020</v>
       </c>
       <c r="D73" t="n">
-        <v>22006</v>
+        <v>57752</v>
       </c>
       <c r="E73" t="n">
-        <v>23851</v>
+        <v>53841</v>
       </c>
       <c r="F73" t="n">
-        <v>22517</v>
+        <v>51123</v>
       </c>
       <c r="G73" t="n">
-        <v>21719</v>
+        <v>51312</v>
       </c>
       <c r="H73" t="n">
-        <v>21973</v>
+        <v>50453</v>
       </c>
       <c r="I73" t="n">
-        <v>20138</v>
+        <v>49508</v>
       </c>
       <c r="J73" t="n">
-        <v>22528.4</v>
+        <v>52326.59999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>1202.7</v>
+        <v>1442.4</v>
       </c>
       <c r="L73" t="n">
         <v>1.96</v>
       </c>
       <c r="M73" t="n">
-        <v>1054.2</v>
+        <v>1264.3</v>
       </c>
       <c r="N73" t="n">
-        <v>21474.2</v>
+        <v>51062.29999999999</v>
       </c>
       <c r="O73" t="n">
-        <v>23582.6</v>
+        <v>53590.89999999999</v>
       </c>
       <c r="P73" t="n">
-        <v>-522.4</v>
+        <v>5425.4</v>
       </c>
       <c r="Q73" t="n">
-        <v>1054.2</v>
+        <v>1264.3</v>
       </c>
       <c r="R73" t="n">
-        <v>-2.3</v>
+        <v>10.4</v>
       </c>
       <c r="S73" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>22528.4 (±1054.2)</t>
+          <t>52326.6 (±1264.3)</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>-522.4 (±1054.2)</t>
+          <t>5425.4 (±1264.3)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>-2.3% (±4.4%)</t>
+          <t>10.4% (±2.6%)</t>
         </is>
       </c>
       <c r="W73" t="n">
-        <v>3474333</v>
+        <v>22244774</v>
       </c>
       <c r="X73" t="n">
-        <v>-15</v>
+        <v>24.4</v>
       </c>
       <c r="Y73" t="n">
-        <v>30.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>-15.0(±30.3)</t>
+          <t>24.4(±5.7)</t>
         </is>
       </c>
     </row>
@@ -7187,87 +7187,87 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>2020</v>
       </c>
       <c r="D74" t="n">
-        <v>268</v>
+        <v>4543</v>
       </c>
       <c r="E74" t="n">
-        <v>233</v>
+        <v>4947</v>
       </c>
       <c r="F74" t="n">
-        <v>236</v>
+        <v>4680</v>
       </c>
       <c r="G74" t="n">
-        <v>233</v>
+        <v>4688</v>
       </c>
       <c r="H74" t="n">
-        <v>254</v>
+        <v>4737</v>
       </c>
       <c r="I74" t="n">
-        <v>277</v>
+        <v>4346</v>
       </c>
       <c r="J74" t="n">
-        <v>253.0000000000001</v>
+        <v>4777.199999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>17.1</v>
+        <v>193</v>
       </c>
       <c r="L74" t="n">
         <v>1.96</v>
       </c>
       <c r="M74" t="n">
-        <v>15</v>
+        <v>169.2</v>
       </c>
       <c r="N74" t="n">
-        <v>238.0000000000001</v>
+        <v>4607.999999999999</v>
       </c>
       <c r="O74" t="n">
-        <v>268.0000000000001</v>
+        <v>4946.399999999999</v>
       </c>
       <c r="P74" t="n">
-        <v>15</v>
+        <v>-234.2</v>
       </c>
       <c r="Q74" t="n">
-        <v>15</v>
+        <v>169.2</v>
       </c>
       <c r="R74" t="n">
-        <v>5.9</v>
+        <v>-4.9</v>
       </c>
       <c r="S74" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>253.0 (±15.0)</t>
+          <t>4777.2 (±169.2)</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15.0 (±15.0)</t>
+          <t>-234.2 (±169.2)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>5.9% (±5.9%)</t>
+          <t>-4.9% (±3.3%)</t>
         </is>
       </c>
       <c r="W74" t="n">
-        <v>111401</v>
+        <v>653837</v>
       </c>
       <c r="X74" t="n">
-        <v>13.5</v>
+        <v>-35.8</v>
       </c>
       <c r="Y74" t="n">
-        <v>13.4</v>
+        <v>25.9</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13.5(±13.4)</t>
+          <t>-35.8(±25.9)</t>
         </is>
       </c>
     </row>
@@ -7279,87 +7279,87 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>2020</v>
       </c>
       <c r="D75" t="n">
-        <v>57752</v>
+        <v>7464</v>
       </c>
       <c r="E75" t="n">
-        <v>53841</v>
+        <v>7520</v>
       </c>
       <c r="F75" t="n">
-        <v>51123</v>
+        <v>7158</v>
       </c>
       <c r="G75" t="n">
-        <v>51312</v>
+        <v>6356</v>
       </c>
       <c r="H75" t="n">
-        <v>50453</v>
+        <v>6265</v>
       </c>
       <c r="I75" t="n">
-        <v>49508</v>
+        <v>6197</v>
       </c>
       <c r="J75" t="n">
-        <v>52326.59999999999</v>
+        <v>6854.4</v>
       </c>
       <c r="K75" t="n">
-        <v>1442.4</v>
+        <v>537.2</v>
       </c>
       <c r="L75" t="n">
         <v>1.96</v>
       </c>
       <c r="M75" t="n">
-        <v>1264.3</v>
+        <v>470.9</v>
       </c>
       <c r="N75" t="n">
-        <v>51062.29999999999</v>
+        <v>6383.5</v>
       </c>
       <c r="O75" t="n">
-        <v>53590.89999999999</v>
+        <v>7325.299999999999</v>
       </c>
       <c r="P75" t="n">
-        <v>5425.4</v>
+        <v>609.6</v>
       </c>
       <c r="Q75" t="n">
-        <v>1264.3</v>
+        <v>470.9</v>
       </c>
       <c r="R75" t="n">
-        <v>10.4</v>
+        <v>8.9</v>
       </c>
       <c r="S75" t="n">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>52326.6 (±1264.3)</t>
+          <t>6854.4 (±470.9)</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>5425.4 (±1264.3)</t>
+          <t>609.6 (±470.9)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>10.4% (±2.6%)</t>
+          <t>8.9% (±7.0%)</t>
         </is>
       </c>
       <c r="W75" t="n">
-        <v>22244774</v>
+        <v>985469</v>
       </c>
       <c r="X75" t="n">
-        <v>24.4</v>
+        <v>61.9</v>
       </c>
       <c r="Y75" t="n">
-        <v>5.7</v>
+        <v>47.7</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>24.4(±5.7)</t>
+          <t>61.9(±47.7)</t>
         </is>
       </c>
     </row>
@@ -7371,87 +7371,87 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>4543</v>
+        <v>550</v>
       </c>
       <c r="E76" t="n">
-        <v>4947</v>
+        <v>482</v>
       </c>
       <c r="F76" t="n">
-        <v>4680</v>
+        <v>517</v>
       </c>
       <c r="G76" t="n">
-        <v>4688</v>
+        <v>510</v>
       </c>
       <c r="H76" t="n">
-        <v>4737</v>
+        <v>515</v>
       </c>
       <c r="I76" t="n">
-        <v>4346</v>
+        <v>527</v>
       </c>
       <c r="J76" t="n">
-        <v>4777.199999999999</v>
+        <v>523.8</v>
       </c>
       <c r="K76" t="n">
-        <v>193</v>
+        <v>15.1</v>
       </c>
       <c r="L76" t="n">
         <v>1.96</v>
       </c>
       <c r="M76" t="n">
-        <v>169.2</v>
+        <v>13.2</v>
       </c>
       <c r="N76" t="n">
-        <v>4607.999999999999</v>
+        <v>510.6</v>
       </c>
       <c r="O76" t="n">
-        <v>4946.399999999999</v>
+        <v>537</v>
       </c>
       <c r="P76" t="n">
-        <v>-234.2</v>
+        <v>26.2</v>
       </c>
       <c r="Q76" t="n">
-        <v>169.2</v>
+        <v>13.2</v>
       </c>
       <c r="R76" t="n">
-        <v>-4.9</v>
+        <v>5</v>
       </c>
       <c r="S76" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>4777.2 (±169.2)</t>
+          <t>523.8 (±13.2)</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>-234.2 (±169.2)</t>
+          <t>26.2 (±13.2)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>-4.9% (±3.3%)</t>
+          <t>5.0% (±2.6%)</t>
         </is>
       </c>
       <c r="W76" t="n">
-        <v>653837</v>
+        <v>217216</v>
       </c>
       <c r="X76" t="n">
-        <v>-35.8</v>
+        <v>12.1</v>
       </c>
       <c r="Y76" t="n">
-        <v>25.9</v>
+        <v>6</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>-35.8(±25.9)</t>
+          <t>12.1(±6.0)</t>
         </is>
       </c>
     </row>
@@ -7463,87 +7463,87 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>2020</v>
       </c>
       <c r="D77" t="n">
-        <v>26</v>
+        <v>416</v>
       </c>
       <c r="E77" t="n">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="F77" t="n">
-        <v>28</v>
+        <v>374</v>
       </c>
       <c r="G77" t="n">
-        <v>35</v>
+        <v>374</v>
       </c>
       <c r="H77" t="n">
-        <v>24</v>
+        <v>396</v>
       </c>
       <c r="I77" t="n">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="J77" t="n">
-        <v>30.6</v>
+        <v>385.9999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>4.4</v>
+        <v>13.5</v>
       </c>
       <c r="L77" t="n">
         <v>1.96</v>
       </c>
       <c r="M77" t="n">
-        <v>3.9</v>
+        <v>11.8</v>
       </c>
       <c r="N77" t="n">
-        <v>26.7</v>
+        <v>374.1999999999999</v>
       </c>
       <c r="O77" t="n">
-        <v>34.5</v>
+        <v>397.8</v>
       </c>
       <c r="P77" t="n">
-        <v>-4.6</v>
+        <v>30</v>
       </c>
       <c r="Q77" t="n">
-        <v>3.9</v>
+        <v>11.8</v>
       </c>
       <c r="R77" t="n">
-        <v>-15</v>
+        <v>7.8</v>
       </c>
       <c r="S77" t="n">
-        <v>9.6</v>
+        <v>3.2</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>30.6 (±3.9)</t>
+          <t>386.0 (±11.8)</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>-4.6 (±3.9)</t>
+          <t>30.0 (±11.8)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>-15.0% (±9.6%)</t>
+          <t>7.8% (±3.2%)</t>
         </is>
       </c>
       <c r="W77" t="n">
-        <v>14530</v>
+        <v>160331</v>
       </c>
       <c r="X77" t="n">
-        <v>-31.7</v>
+        <v>18.7</v>
       </c>
       <c r="Y77" t="n">
-        <v>26.9</v>
+        <v>7.4</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>-31.7(±26.9)</t>
+          <t>18.7(±7.4)</t>
         </is>
       </c>
     </row>
@@ -7555,87 +7555,87 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>7464</v>
+        <v>1150</v>
       </c>
       <c r="E78" t="n">
-        <v>7520</v>
+        <v>1115</v>
       </c>
       <c r="F78" t="n">
-        <v>7158</v>
+        <v>1086</v>
       </c>
       <c r="G78" t="n">
-        <v>6356</v>
+        <v>1036</v>
       </c>
       <c r="H78" t="n">
-        <v>6265</v>
+        <v>1044</v>
       </c>
       <c r="I78" t="n">
-        <v>6197</v>
+        <v>1053</v>
       </c>
       <c r="J78" t="n">
-        <v>6854.4</v>
+        <v>1090</v>
       </c>
       <c r="K78" t="n">
-        <v>537.2</v>
+        <v>29.5</v>
       </c>
       <c r="L78" t="n">
         <v>1.96</v>
       </c>
       <c r="M78" t="n">
-        <v>470.9</v>
+        <v>25.9</v>
       </c>
       <c r="N78" t="n">
-        <v>6383.5</v>
+        <v>1064.1</v>
       </c>
       <c r="O78" t="n">
-        <v>7325.299999999999</v>
+        <v>1115.9</v>
       </c>
       <c r="P78" t="n">
-        <v>609.6</v>
+        <v>60</v>
       </c>
       <c r="Q78" t="n">
-        <v>470.9</v>
+        <v>25.9</v>
       </c>
       <c r="R78" t="n">
-        <v>8.9</v>
+        <v>5.5</v>
       </c>
       <c r="S78" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>6854.4 (±470.9)</t>
+          <t>1090.0 (±25.9)</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>609.6 (±470.9)</t>
+          <t>60.0 (±25.9)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>8.9% (±7.0%)</t>
+          <t>5.5% (±2.4%)</t>
         </is>
       </c>
       <c r="W78" t="n">
-        <v>985469</v>
+        <v>205268</v>
       </c>
       <c r="X78" t="n">
-        <v>61.9</v>
+        <v>29.2</v>
       </c>
       <c r="Y78" t="n">
-        <v>47.7</v>
+        <v>12.6</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>61.9(±47.7)</t>
+          <t>29.2(±12.6)</t>
         </is>
       </c>
     </row>
@@ -7647,87 +7647,87 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>2020</v>
       </c>
       <c r="D79" t="n">
-        <v>550</v>
+        <v>15969</v>
       </c>
       <c r="E79" t="n">
-        <v>482</v>
+        <v>16399</v>
       </c>
       <c r="F79" t="n">
-        <v>517</v>
+        <v>15905</v>
       </c>
       <c r="G79" t="n">
-        <v>510</v>
+        <v>15460</v>
       </c>
       <c r="H79" t="n">
-        <v>515</v>
+        <v>15357</v>
       </c>
       <c r="I79" t="n">
-        <v>527</v>
+        <v>14892</v>
       </c>
       <c r="J79" t="n">
-        <v>523.8</v>
+        <v>15913</v>
       </c>
       <c r="K79" t="n">
-        <v>15.1</v>
+        <v>512.1</v>
       </c>
       <c r="L79" t="n">
         <v>1.96</v>
       </c>
       <c r="M79" t="n">
-        <v>13.2</v>
+        <v>448.9</v>
       </c>
       <c r="N79" t="n">
-        <v>510.6</v>
+        <v>15464.1</v>
       </c>
       <c r="O79" t="n">
-        <v>537</v>
+        <v>16361.9</v>
       </c>
       <c r="P79" t="n">
-        <v>26.2</v>
+        <v>56</v>
       </c>
       <c r="Q79" t="n">
-        <v>13.2</v>
+        <v>448.9</v>
       </c>
       <c r="R79" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="S79" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>523.8 (±13.2)</t>
+          <t>15913.0 (±448.9)</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>26.2 (±13.2)</t>
+          <t>56.0 (±448.9)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>5.0% (±2.6%)</t>
+          <t>0.4% (±2.8%)</t>
         </is>
       </c>
       <c r="W79" t="n">
-        <v>217216</v>
+        <v>5858292</v>
       </c>
       <c r="X79" t="n">
-        <v>12.1</v>
+        <v>1</v>
       </c>
       <c r="Y79" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>12.1(±6.0)</t>
+          <t>1.0(±7.6)</t>
         </is>
       </c>
     </row>
@@ -7739,87 +7739,87 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>2020</v>
       </c>
       <c r="D80" t="n">
-        <v>416</v>
+        <v>3730</v>
       </c>
       <c r="E80" t="n">
-        <v>389</v>
+        <v>4062</v>
       </c>
       <c r="F80" t="n">
-        <v>374</v>
+        <v>3981</v>
       </c>
       <c r="G80" t="n">
-        <v>374</v>
+        <v>3819</v>
       </c>
       <c r="H80" t="n">
-        <v>396</v>
+        <v>3803</v>
       </c>
       <c r="I80" t="n">
-        <v>357</v>
+        <v>3724</v>
       </c>
       <c r="J80" t="n">
-        <v>385.9999999999999</v>
+        <v>3955.399999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>13.5</v>
+        <v>124.3</v>
       </c>
       <c r="L80" t="n">
         <v>1.96</v>
       </c>
       <c r="M80" t="n">
-        <v>11.8</v>
+        <v>109</v>
       </c>
       <c r="N80" t="n">
-        <v>374.1999999999999</v>
+        <v>3846.399999999999</v>
       </c>
       <c r="O80" t="n">
-        <v>397.8</v>
+        <v>4064.399999999999</v>
       </c>
       <c r="P80" t="n">
-        <v>30</v>
+        <v>-225.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>11.8</v>
+        <v>109</v>
       </c>
       <c r="R80" t="n">
-        <v>7.8</v>
+        <v>-5.7</v>
       </c>
       <c r="S80" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>386.0 (±11.8)</t>
+          <t>3955.4 (±109.0)</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>30.0 (±11.8)</t>
+          <t>-225.4 (±109.0)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>7.8% (±3.2%)</t>
+          <t>-5.7% (±2.5%)</t>
         </is>
       </c>
       <c r="W80" t="n">
-        <v>160331</v>
+        <v>1734716</v>
       </c>
       <c r="X80" t="n">
-        <v>18.7</v>
+        <v>-13</v>
       </c>
       <c r="Y80" t="n">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>18.7(±7.4)</t>
+          <t>-13.0(±6.3)</t>
         </is>
       </c>
     </row>
@@ -7831,87 +7831,87 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>2020</v>
       </c>
       <c r="D81" t="n">
-        <v>1150</v>
+        <v>75954</v>
       </c>
       <c r="E81" t="n">
-        <v>1115</v>
+        <v>76731</v>
       </c>
       <c r="F81" t="n">
-        <v>1086</v>
+        <v>72326</v>
       </c>
       <c r="G81" t="n">
-        <v>1036</v>
+        <v>70737</v>
       </c>
       <c r="H81" t="n">
-        <v>1044</v>
+        <v>70473</v>
       </c>
       <c r="I81" t="n">
-        <v>1053</v>
+        <v>67728</v>
       </c>
       <c r="J81" t="n">
-        <v>1090</v>
+        <v>73109.39999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>29.5</v>
+        <v>2961.8</v>
       </c>
       <c r="L81" t="n">
         <v>1.96</v>
       </c>
       <c r="M81" t="n">
-        <v>25.9</v>
+        <v>2596.1</v>
       </c>
       <c r="N81" t="n">
-        <v>1064.1</v>
+        <v>70513.29999999999</v>
       </c>
       <c r="O81" t="n">
-        <v>1115.9</v>
+        <v>75705.5</v>
       </c>
       <c r="P81" t="n">
-        <v>60</v>
+        <v>2844.6</v>
       </c>
       <c r="Q81" t="n">
-        <v>25.9</v>
+        <v>2596.1</v>
       </c>
       <c r="R81" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="S81" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>1090.0 (±25.9)</t>
+          <t>73109.4 (±2596.1)</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>60.0 (±25.9)</t>
+          <t>2844.6 (±2596.1)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>5.5% (±2.4%)</t>
+          <t>3.9% (±3.6%)</t>
         </is>
       </c>
       <c r="W81" t="n">
-        <v>205268</v>
+        <v>12856410</v>
       </c>
       <c r="X81" t="n">
-        <v>29.2</v>
+        <v>22.1</v>
       </c>
       <c r="Y81" t="n">
-        <v>12.6</v>
+        <v>20.2</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>29.2(±12.6)</t>
+          <t>22.1(±20.2)</t>
         </is>
       </c>
     </row>
@@ -7923,87 +7923,87 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>15969</v>
+        <v>12694</v>
       </c>
       <c r="E82" t="n">
-        <v>16399</v>
+        <v>11809</v>
       </c>
       <c r="F82" t="n">
-        <v>15905</v>
+        <v>11916</v>
       </c>
       <c r="G82" t="n">
-        <v>15460</v>
+        <v>11794</v>
       </c>
       <c r="H82" t="n">
-        <v>15357</v>
+        <v>11758</v>
       </c>
       <c r="I82" t="n">
-        <v>14892</v>
+        <v>11488</v>
       </c>
       <c r="J82" t="n">
-        <v>15913</v>
+        <v>12013.8</v>
       </c>
       <c r="K82" t="n">
-        <v>512.1</v>
+        <v>142.6</v>
       </c>
       <c r="L82" t="n">
         <v>1.96</v>
       </c>
       <c r="M82" t="n">
-        <v>448.9</v>
+        <v>125</v>
       </c>
       <c r="N82" t="n">
-        <v>15464.1</v>
+        <v>11888.8</v>
       </c>
       <c r="O82" t="n">
-        <v>16361.9</v>
+        <v>12138.8</v>
       </c>
       <c r="P82" t="n">
-        <v>56</v>
+        <v>680.2</v>
       </c>
       <c r="Q82" t="n">
-        <v>448.9</v>
+        <v>125</v>
       </c>
       <c r="R82" t="n">
-        <v>0.4</v>
+        <v>5.7</v>
       </c>
       <c r="S82" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>15913.0 (±448.9)</t>
+          <t>12013.8 (±125.0)</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>56.0 (±448.9)</t>
+          <t>680.2 (±125.0)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>0.4% (±2.8%)</t>
+          <t>5.7% (±1.1%)</t>
         </is>
       </c>
       <c r="W82" t="n">
-        <v>5858292</v>
+        <v>3736038</v>
       </c>
       <c r="X82" t="n">
-        <v>1</v>
+        <v>18.2</v>
       </c>
       <c r="Y82" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>1.0(±7.6)</t>
+          <t>18.2(±3.4)</t>
         </is>
       </c>
     </row>
@@ -8015,87 +8015,87 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>2020</v>
       </c>
       <c r="D83" t="n">
-        <v>3727</v>
+        <v>50397</v>
       </c>
       <c r="E83" t="n">
-        <v>4062</v>
+        <v>45898</v>
       </c>
       <c r="F83" t="n">
-        <v>3981</v>
+        <v>45219</v>
       </c>
       <c r="G83" t="n">
-        <v>3819</v>
+        <v>44143</v>
       </c>
       <c r="H83" t="n">
-        <v>3803</v>
+        <v>44875</v>
       </c>
       <c r="I83" t="n">
-        <v>3724</v>
+        <v>43323</v>
       </c>
       <c r="J83" t="n">
-        <v>3955.399999999999</v>
+        <v>45661.2</v>
       </c>
       <c r="K83" t="n">
-        <v>124.3</v>
+        <v>887.8</v>
       </c>
       <c r="L83" t="n">
         <v>1.96</v>
       </c>
       <c r="M83" t="n">
-        <v>109</v>
+        <v>778.2</v>
       </c>
       <c r="N83" t="n">
-        <v>3846.399999999999</v>
+        <v>44883.00000000001</v>
       </c>
       <c r="O83" t="n">
-        <v>4064.399999999999</v>
+        <v>46439.4</v>
       </c>
       <c r="P83" t="n">
-        <v>-228.4</v>
+        <v>4735.8</v>
       </c>
       <c r="Q83" t="n">
-        <v>109</v>
+        <v>778.2</v>
       </c>
       <c r="R83" t="n">
-        <v>-5.8</v>
+        <v>10.4</v>
       </c>
       <c r="S83" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>3955.4 (±109.0)</t>
+          <t>45661.2 (±778.2)</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>-228.4 (±109.0)</t>
+          <t>4735.8 (±778.2)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>-5.8% (±2.5%)</t>
+          <t>10.4% (±1.9%)</t>
         </is>
       </c>
       <c r="W83" t="n">
-        <v>1734716</v>
+        <v>6858653</v>
       </c>
       <c r="X83" t="n">
-        <v>-13.2</v>
+        <v>69</v>
       </c>
       <c r="Y83" t="n">
-        <v>6.3</v>
+        <v>11.4</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>-13.2(±6.3)</t>
+          <t>69.0(±11.4)</t>
         </is>
       </c>
     </row>
@@ -8107,87 +8107,87 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>2020</v>
       </c>
       <c r="D84" t="n">
-        <v>75954</v>
+        <v>9780</v>
       </c>
       <c r="E84" t="n">
-        <v>76731</v>
+        <v>10409</v>
       </c>
       <c r="F84" t="n">
-        <v>72326</v>
+        <v>9769</v>
       </c>
       <c r="G84" t="n">
-        <v>70737</v>
+        <v>9596</v>
       </c>
       <c r="H84" t="n">
-        <v>70473</v>
+        <v>9570</v>
       </c>
       <c r="I84" t="n">
-        <v>67728</v>
+        <v>9001</v>
       </c>
       <c r="J84" t="n">
-        <v>73109.39999999999</v>
+        <v>9849.799999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>2961.8</v>
+        <v>451.4</v>
       </c>
       <c r="L84" t="n">
         <v>1.96</v>
       </c>
       <c r="M84" t="n">
-        <v>2596.1</v>
+        <v>395.7</v>
       </c>
       <c r="N84" t="n">
-        <v>70513.29999999999</v>
+        <v>9454.099999999999</v>
       </c>
       <c r="O84" t="n">
-        <v>75705.5</v>
+        <v>10245.5</v>
       </c>
       <c r="P84" t="n">
-        <v>2844.6</v>
+        <v>-69.8</v>
       </c>
       <c r="Q84" t="n">
-        <v>2596.1</v>
+        <v>395.7</v>
       </c>
       <c r="R84" t="n">
-        <v>3.9</v>
+        <v>-0.7</v>
       </c>
       <c r="S84" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>73109.4 (±2596.1)</t>
+          <t>9849.8 (±395.7)</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2844.6 (±2596.1)</t>
+          <t>-69.8 (±395.7)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>3.9% (±3.6%)</t>
+          <t>-0.7% (±3.8%)</t>
         </is>
       </c>
       <c r="W84" t="n">
-        <v>12856410</v>
+        <v>1918677</v>
       </c>
       <c r="X84" t="n">
-        <v>22.1</v>
+        <v>-3.6</v>
       </c>
       <c r="Y84" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>22.1(±20.2)</t>
+          <t>-3.6(±20.6)</t>
         </is>
       </c>
     </row>
@@ -8199,87 +8199,87 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>2020</v>
       </c>
       <c r="D85" t="n">
-        <v>12694</v>
+        <v>2486</v>
       </c>
       <c r="E85" t="n">
-        <v>11809</v>
+        <v>2739</v>
       </c>
       <c r="F85" t="n">
-        <v>11916</v>
+        <v>2565</v>
       </c>
       <c r="G85" t="n">
-        <v>11794</v>
+        <v>2599</v>
       </c>
       <c r="H85" t="n">
-        <v>11758</v>
+        <v>2456</v>
       </c>
       <c r="I85" t="n">
-        <v>11488</v>
+        <v>2301</v>
       </c>
       <c r="J85" t="n">
-        <v>12013.8</v>
+        <v>2564.8</v>
       </c>
       <c r="K85" t="n">
-        <v>142.6</v>
+        <v>146.7</v>
       </c>
       <c r="L85" t="n">
         <v>1.96</v>
       </c>
       <c r="M85" t="n">
-        <v>125</v>
+        <v>128.6</v>
       </c>
       <c r="N85" t="n">
-        <v>11888.8</v>
+        <v>2436.2</v>
       </c>
       <c r="O85" t="n">
-        <v>12138.8</v>
+        <v>2693.4</v>
       </c>
       <c r="P85" t="n">
-        <v>680.2</v>
+        <v>-78.8</v>
       </c>
       <c r="Q85" t="n">
-        <v>125</v>
+        <v>128.6</v>
       </c>
       <c r="R85" t="n">
-        <v>5.7</v>
+        <v>-3.1</v>
       </c>
       <c r="S85" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>12013.8 (±125.0)</t>
+          <t>2564.8 (±128.6)</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>680.2 (±125.0)</t>
+          <t>-78.8 (±128.6)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>5.7% (±1.1%)</t>
+          <t>-3.1% (±4.6%)</t>
         </is>
       </c>
       <c r="W85" t="n">
-        <v>3736038</v>
+        <v>756559</v>
       </c>
       <c r="X85" t="n">
-        <v>18.2</v>
+        <v>-10.4</v>
       </c>
       <c r="Y85" t="n">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>18.2(±3.4)</t>
+          <t>-10.4(±17.0)</t>
         </is>
       </c>
     </row>
@@ -8291,87 +8291,87 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>2020</v>
       </c>
       <c r="D86" t="n">
-        <v>50397</v>
+        <v>48530</v>
       </c>
       <c r="E86" t="n">
-        <v>45898</v>
+        <v>42710</v>
       </c>
       <c r="F86" t="n">
-        <v>45219</v>
+        <v>41641</v>
       </c>
       <c r="G86" t="n">
-        <v>44143</v>
+        <v>41697</v>
       </c>
       <c r="H86" t="n">
-        <v>44875</v>
+        <v>41975</v>
       </c>
       <c r="I86" t="n">
-        <v>43323</v>
+        <v>41862</v>
       </c>
       <c r="J86" t="n">
-        <v>45661.2</v>
+        <v>42803.4</v>
       </c>
       <c r="K86" t="n">
-        <v>887.8</v>
+        <v>385.2</v>
       </c>
       <c r="L86" t="n">
         <v>1.96</v>
       </c>
       <c r="M86" t="n">
-        <v>778.2</v>
+        <v>337.6</v>
       </c>
       <c r="N86" t="n">
-        <v>44883.00000000001</v>
+        <v>42465.8</v>
       </c>
       <c r="O86" t="n">
-        <v>46439.4</v>
+        <v>43141</v>
       </c>
       <c r="P86" t="n">
-        <v>4735.8</v>
+        <v>5726.6</v>
       </c>
       <c r="Q86" t="n">
-        <v>778.2</v>
+        <v>337.6</v>
       </c>
       <c r="R86" t="n">
-        <v>10.4</v>
+        <v>13.4</v>
       </c>
       <c r="S86" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>42803.4 (±337.6)</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>5726.6 (±337.6)</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>13.4% (±0.9%)</t>
+        </is>
+      </c>
+      <c r="W86" t="n">
+        <v>17787666</v>
+      </c>
+      <c r="X86" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="Y86" t="n">
         <v>1.9</v>
       </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>45661.2 (±778.2)</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>4735.8 (±778.2)</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>10.4% (±1.9%)</t>
-        </is>
-      </c>
-      <c r="W86" t="n">
-        <v>6858653</v>
-      </c>
-      <c r="X86" t="n">
-        <v>69</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>11.4</v>
-      </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>69.0(±11.4)</t>
+          <t>32.2(±1.9)</t>
         </is>
       </c>
     </row>
@@ -8383,87 +8383,87 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>2020</v>
       </c>
       <c r="D87" t="n">
-        <v>9780</v>
+        <v>6581</v>
       </c>
       <c r="E87" t="n">
-        <v>10409</v>
+        <v>7263</v>
       </c>
       <c r="F87" t="n">
-        <v>9769</v>
+        <v>6687</v>
       </c>
       <c r="G87" t="n">
-        <v>9596</v>
+        <v>6606</v>
       </c>
       <c r="H87" t="n">
-        <v>9570</v>
+        <v>6405</v>
       </c>
       <c r="I87" t="n">
-        <v>9001</v>
+        <v>6064</v>
       </c>
       <c r="J87" t="n">
-        <v>9849.799999999999</v>
+        <v>6732.200000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>451.4</v>
+        <v>393</v>
       </c>
       <c r="L87" t="n">
         <v>1.96</v>
       </c>
       <c r="M87" t="n">
-        <v>395.7</v>
+        <v>344.5</v>
       </c>
       <c r="N87" t="n">
-        <v>9454.099999999999</v>
+        <v>6387.700000000001</v>
       </c>
       <c r="O87" t="n">
-        <v>10245.5</v>
+        <v>7076.700000000001</v>
       </c>
       <c r="P87" t="n">
-        <v>-69.8</v>
+        <v>-151.2</v>
       </c>
       <c r="Q87" t="n">
-        <v>395.7</v>
+        <v>344.5</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.7</v>
+        <v>-2.2</v>
       </c>
       <c r="S87" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>9849.8 (±395.7)</t>
+          <t>6732.2 (±344.5)</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>-69.8 (±395.7)</t>
+          <t>-151.2 (±344.5)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>-0.7% (±3.8%)</t>
+          <t>-2.2% (±4.8%)</t>
         </is>
       </c>
       <c r="W87" t="n">
-        <v>1918677</v>
+        <v>3164608</v>
       </c>
       <c r="X87" t="n">
-        <v>-3.6</v>
+        <v>-4.8</v>
       </c>
       <c r="Y87" t="n">
-        <v>20.6</v>
+        <v>10.9</v>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>-3.6(±20.6)</t>
+          <t>-4.8(±10.9)</t>
         </is>
       </c>
     </row>
@@ -8475,363 +8475,87 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>2020</v>
       </c>
       <c r="D88" t="n">
-        <v>2486</v>
+        <v>6192</v>
       </c>
       <c r="E88" t="n">
-        <v>2739</v>
+        <v>6378</v>
       </c>
       <c r="F88" t="n">
-        <v>2565</v>
+        <v>6040</v>
       </c>
       <c r="G88" t="n">
-        <v>2599</v>
+        <v>6087</v>
       </c>
       <c r="H88" t="n">
-        <v>2456</v>
+        <v>6109</v>
       </c>
       <c r="I88" t="n">
-        <v>2301</v>
+        <v>5874</v>
       </c>
       <c r="J88" t="n">
-        <v>2564.8</v>
+        <v>6211.199999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>146.7</v>
+        <v>162.6</v>
       </c>
       <c r="L88" t="n">
         <v>1.96</v>
       </c>
       <c r="M88" t="n">
-        <v>128.6</v>
+        <v>142.5</v>
       </c>
       <c r="N88" t="n">
-        <v>2436.2</v>
+        <v>6068.699999999999</v>
       </c>
       <c r="O88" t="n">
-        <v>2693.4</v>
+        <v>6353.699999999999</v>
       </c>
       <c r="P88" t="n">
-        <v>-78.8</v>
+        <v>-19.2</v>
       </c>
       <c r="Q88" t="n">
-        <v>128.6</v>
+        <v>142.5</v>
       </c>
       <c r="R88" t="n">
-        <v>-3.1</v>
+        <v>-0.3</v>
       </c>
       <c r="S88" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>2564.8 (±128.6)</t>
+          <t>6211.2 (±142.5)</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>-78.8 (±128.6)</t>
+          <t>-19.2 (±142.5)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>-3.1% (±4.6%)</t>
+          <t>-0.3% (±2.2%)</t>
         </is>
       </c>
       <c r="W88" t="n">
-        <v>756559</v>
+        <v>3008509</v>
       </c>
       <c r="X88" t="n">
-        <v>-10.4</v>
+        <v>-0.6</v>
       </c>
       <c r="Y88" t="n">
-        <v>17</v>
+        <v>4.7</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>-10.4(±17.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D89" t="n">
-        <v>48530</v>
-      </c>
-      <c r="E89" t="n">
-        <v>42710</v>
-      </c>
-      <c r="F89" t="n">
-        <v>41641</v>
-      </c>
-      <c r="G89" t="n">
-        <v>41697</v>
-      </c>
-      <c r="H89" t="n">
-        <v>41975</v>
-      </c>
-      <c r="I89" t="n">
-        <v>41862</v>
-      </c>
-      <c r="J89" t="n">
-        <v>42803.4</v>
-      </c>
-      <c r="K89" t="n">
-        <v>385.2</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M89" t="n">
-        <v>337.6</v>
-      </c>
-      <c r="N89" t="n">
-        <v>42465.8</v>
-      </c>
-      <c r="O89" t="n">
-        <v>43141</v>
-      </c>
-      <c r="P89" t="n">
-        <v>5726.6</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>337.6</v>
-      </c>
-      <c r="R89" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>42803.4 (±337.6)</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>5726.6 (±337.6)</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>13.4% (±0.9%)</t>
-        </is>
-      </c>
-      <c r="W89" t="n">
-        <v>17787666</v>
-      </c>
-      <c r="X89" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>32.2(±1.9)</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D90" t="n">
-        <v>6581</v>
-      </c>
-      <c r="E90" t="n">
-        <v>7263</v>
-      </c>
-      <c r="F90" t="n">
-        <v>6687</v>
-      </c>
-      <c r="G90" t="n">
-        <v>6606</v>
-      </c>
-      <c r="H90" t="n">
-        <v>6405</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6064</v>
-      </c>
-      <c r="J90" t="n">
-        <v>6732.200000000001</v>
-      </c>
-      <c r="K90" t="n">
-        <v>393</v>
-      </c>
-      <c r="L90" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M90" t="n">
-        <v>344.5</v>
-      </c>
-      <c r="N90" t="n">
-        <v>6387.700000000001</v>
-      </c>
-      <c r="O90" t="n">
-        <v>7076.700000000001</v>
-      </c>
-      <c r="P90" t="n">
-        <v>-151.2</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>344.5</v>
-      </c>
-      <c r="R90" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="S90" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>6732.2 (±344.5)</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>-151.2 (±344.5)</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>-2.2% (±4.8%)</t>
-        </is>
-      </c>
-      <c r="W90" t="n">
-        <v>3164608</v>
-      </c>
-      <c r="X90" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>-4.8(±10.9)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D91" t="n">
-        <v>6187</v>
-      </c>
-      <c r="E91" t="n">
-        <v>6378</v>
-      </c>
-      <c r="F91" t="n">
-        <v>6040</v>
-      </c>
-      <c r="G91" t="n">
-        <v>6087</v>
-      </c>
-      <c r="H91" t="n">
-        <v>6109</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5874</v>
-      </c>
-      <c r="J91" t="n">
-        <v>6211.199999999999</v>
-      </c>
-      <c r="K91" t="n">
-        <v>162.6</v>
-      </c>
-      <c r="L91" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M91" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="N91" t="n">
-        <v>6068.699999999999</v>
-      </c>
-      <c r="O91" t="n">
-        <v>6353.699999999999</v>
-      </c>
-      <c r="P91" t="n">
-        <v>-24.2</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="R91" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="S91" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>6211.2 (±142.5)</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>-24.2 (±142.5)</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>-0.4% (±2.2%)</t>
-        </is>
-      </c>
-      <c r="W91" t="n">
-        <v>3008509</v>
-      </c>
-      <c r="X91" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>-0.8(±4.7)</t>
+          <t>-0.6(±4.7)</t>
         </is>
       </c>
     </row>

--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(40-44) - (60-64)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(40-44) - (60-64)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -662,7 +662,7 @@
         <v>2020</v>
       </c>
       <c r="D3" t="n">
-        <v>4659</v>
+        <v>4663</v>
       </c>
       <c r="E3" t="n">
         <v>4894</v>
@@ -698,13 +698,13 @@
         <v>4801.699999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q3" t="n">
         <v>156.7</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S3" t="n">
         <v>3.3</v>
@@ -716,26 +716,26 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>14.0 (±156.7)</t>
+          <t>18.0 (±156.7)</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.3% (±3.3%)</t>
+          <t>0.4% (±3.3%)</t>
         </is>
       </c>
       <c r="W3" t="n">
         <v>1903120</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="Y3" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.7(±8.3)</t>
+          <t>0.9(±8.3)</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>2020</v>
       </c>
       <c r="D4" t="n">
-        <v>6255</v>
+        <v>6258</v>
       </c>
       <c r="E4" t="n">
         <v>5295</v>
@@ -790,16 +790,16 @@
         <v>5361.200000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>1069.8</v>
+        <v>1072.8</v>
       </c>
       <c r="Q4" t="n">
         <v>176</v>
       </c>
       <c r="R4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -808,26 +808,26 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1069.8 (±176.0)</t>
+          <t>1072.8 (±176.0)</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>20.6% (±3.9%)</t>
+          <t>20.7% (±4.0%)</t>
         </is>
       </c>
       <c r="W4" t="n">
         <v>1243628</v>
       </c>
       <c r="X4" t="n">
-        <v>86</v>
+        <v>86.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>86.0(±14.2)</t>
+          <t>86.3(±14.1)</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
         <v>2020</v>
       </c>
       <c r="D5" t="n">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E5" t="n">
         <v>2172</v>
@@ -882,13 +882,13 @@
         <v>2141.1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="Q5" t="n">
         <v>81.5</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5" t="n">
         <v>3.8</v>
@@ -900,26 +900,26 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.4 (±81.5)</t>
+          <t>-0.6 (±81.5)</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.0% (±3.8%)</t>
+          <t>-0.0% (±3.8%)</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>713346</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="Y5" t="n">
         <v>11.4</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.1(±11.4)</t>
+          <t>-0.1(±11.4)</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         <v>2020</v>
       </c>
       <c r="D11" t="n">
-        <v>23957</v>
+        <v>23966</v>
       </c>
       <c r="E11" t="n">
         <v>23920</v>
@@ -1434,13 +1434,13 @@
         <v>24236.5</v>
       </c>
       <c r="P11" t="n">
-        <v>57.8</v>
+        <v>66.8</v>
       </c>
       <c r="Q11" t="n">
         <v>337.3</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -1452,26 +1452,26 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>57.8 (±337.3)</t>
+          <t>66.8 (±337.3)</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.2% (±1.4%)</t>
+          <t>0.3% (±1.4%)</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>11012229</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Y11" t="n">
         <v>3.1</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0.5(±3.1)</t>
+          <t>0.6(±3.1)</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
         <v>2020</v>
       </c>
       <c r="D15" t="n">
-        <v>21010</v>
+        <v>21015</v>
       </c>
       <c r="E15" t="n">
         <v>20143</v>
@@ -1802,7 +1802,7 @@
         <v>20054.19999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>1369.4</v>
+        <v>1374.4</v>
       </c>
       <c r="Q15" t="n">
         <v>413.6</v>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1369.4 (±413.6)</t>
+          <t>1374.4 (±413.6)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1832,14 +1832,14 @@
         <v>11306702</v>
       </c>
       <c r="X15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12.1(±3.7)</t>
+          <t>12.2(±3.6)</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
         <v>2020</v>
       </c>
       <c r="D17" t="n">
-        <v>2128</v>
+        <v>2167</v>
       </c>
       <c r="E17" t="n">
         <v>2099</v>
@@ -1986,16 +1986,16 @@
         <v>2039.2</v>
       </c>
       <c r="P17" t="n">
-        <v>187.4</v>
+        <v>226.4</v>
       </c>
       <c r="Q17" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>9.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="S17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2004,26 +2004,26 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>187.4 (±98.6)</t>
+          <t>226.4 (±98.6)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>9.7% (±5.3%)</t>
+          <t>11.7% (±5.4%)</t>
         </is>
       </c>
       <c r="W17" t="n">
         <v>519477</v>
       </c>
       <c r="X17" t="n">
-        <v>36.1</v>
+        <v>43.6</v>
       </c>
       <c r="Y17" t="n">
         <v>19</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>36.1(±19.0)</t>
+          <t>43.6(±19.0)</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
         <v>2020</v>
       </c>
       <c r="D18" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" t="n">
         <v>166</v>
@@ -2078,13 +2078,13 @@
         <v>192.3</v>
       </c>
       <c r="P18" t="n">
-        <v>-12.4</v>
+        <v>-13.4</v>
       </c>
       <c r="Q18" t="n">
         <v>8.9</v>
       </c>
       <c r="R18" t="n">
-        <v>-6.8</v>
+        <v>-7.3</v>
       </c>
       <c r="S18" t="n">
         <v>4.3</v>
@@ -2096,26 +2096,26 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-12.4 (±8.9)</t>
+          <t>-13.4 (±8.9)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-6.8% (±4.3%)</t>
+          <t>-7.3% (±4.3%)</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>105793</v>
       </c>
       <c r="X18" t="n">
-        <v>-11.7</v>
+        <v>-12.7</v>
       </c>
       <c r="Y18" t="n">
         <v>8.4</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-11.7(±8.4)</t>
+          <t>-12.7(±8.4)</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v>2020</v>
       </c>
       <c r="D20" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E20" t="n">
         <v>401</v>
@@ -2262,13 +2262,13 @@
         <v>385.6999999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
       <c r="Q20" t="n">
         <v>18.9</v>
       </c>
       <c r="R20" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="S20" t="n">
         <v>5.2</v>
@@ -2280,26 +2280,26 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>24.2 (±18.9)</t>
+          <t>27.2 (±18.9)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>6.6% (±5.2%)</t>
+          <t>7.4% (±5.2%)</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>104654</v>
       </c>
       <c r="X20" t="n">
-        <v>23.1</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>23.1(±18.1)</t>
+          <t>26.0(±18.0)</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="E22" t="n">
         <v>1608</v>
@@ -2446,7 +2446,7 @@
         <v>1595.9</v>
       </c>
       <c r="P22" t="n">
-        <v>-91.8</v>
+        <v>-90.8</v>
       </c>
       <c r="Q22" t="n">
         <v>45.1</v>
@@ -2455,7 +2455,7 @@
         <v>-5.9</v>
       </c>
       <c r="S22" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2464,26 +2464,26 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-91.8 (±45.1)</t>
+          <t>-90.8 (±45.1)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-5.9% (±2.7%)</t>
+          <t>-5.9% (±2.6%)</t>
         </is>
       </c>
       <c r="W22" t="n">
         <v>848170</v>
       </c>
       <c r="X22" t="n">
-        <v>-10.8</v>
+        <v>-10.7</v>
       </c>
       <c r="Y22" t="n">
         <v>5.3</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>-10.8(±5.3)</t>
+          <t>-10.7(±5.3)</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>3907</v>
+        <v>3928</v>
       </c>
       <c r="E24" t="n">
         <v>3623</v>
@@ -2630,13 +2630,13 @@
         <v>3795.9</v>
       </c>
       <c r="P24" t="n">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="Q24" t="n">
         <v>40.9</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="S24" t="n">
         <v>1.1</v>
@@ -2648,26 +2648,26 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>152.0 (±40.9)</t>
+          <t>173.0 (±40.9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>4.0% (±1.1%)</t>
+          <t>4.6% (±1.1%)</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>1975105</v>
       </c>
       <c r="X24" t="n">
-        <v>7.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>7.7(±2.1)</t>
+          <t>8.8(±2.0)</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
         <v>2020</v>
       </c>
       <c r="D26" t="n">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="E26" t="n">
         <v>3168</v>
@@ -2814,16 +2814,16 @@
         <v>3104.1</v>
       </c>
       <c r="P26" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q26" t="n">
         <v>132.1</v>
       </c>
       <c r="R26" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2832,26 +2832,26 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>66.0 (±132.1)</t>
+          <t>67.0 (±132.1)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2.2% (±4.3%)</t>
+          <t>2.3% (±4.4%)</t>
         </is>
       </c>
       <c r="W26" t="n">
         <v>963841</v>
       </c>
       <c r="X26" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>6.8(±13.8)</t>
+          <t>7.0(±13.7)</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
         <v>2020</v>
       </c>
       <c r="D30" t="n">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="E30" t="n">
         <v>2347</v>
@@ -3182,13 +3182,13 @@
         <v>2363.6</v>
       </c>
       <c r="P30" t="n">
-        <v>-41.6</v>
+        <v>-37.6</v>
       </c>
       <c r="Q30" t="n">
         <v>60</v>
       </c>
       <c r="R30" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="S30" t="n">
         <v>2.5</v>
@@ -3200,26 +3200,26 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-41.6 (±60.0)</t>
+          <t>-37.6 (±60.0)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-1.8% (±2.5%)</t>
+          <t>-1.6% (±2.5%)</t>
         </is>
       </c>
       <c r="W30" t="n">
         <v>1496087</v>
       </c>
       <c r="X30" t="n">
-        <v>-2.8</v>
+        <v>-2.5</v>
       </c>
       <c r="Y30" t="n">
         <v>4</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>-2.8(±4.0)</t>
+          <t>-2.5(±4.0)</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
         <v>2020</v>
       </c>
       <c r="D32" t="n">
-        <v>8021</v>
+        <v>8025</v>
       </c>
       <c r="E32" t="n">
         <v>7986</v>
@@ -3366,7 +3366,7 @@
         <v>7895.6</v>
       </c>
       <c r="P32" t="n">
-        <v>432.2</v>
+        <v>436.2</v>
       </c>
       <c r="Q32" t="n">
         <v>306.8</v>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>432.2 (±306.8)</t>
+          <t>436.2 (±306.8)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -3396,14 +3396,14 @@
         <v>1919953</v>
       </c>
       <c r="X32" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Y32" t="n">
         <v>16</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>22.5(±16.0)</t>
+          <t>22.7(±16.0)</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
         <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>13594</v>
+        <v>13600</v>
       </c>
       <c r="E33" t="n">
         <v>11830</v>
@@ -3458,13 +3458,13 @@
         <v>11851.2</v>
       </c>
       <c r="P33" t="n">
-        <v>2047</v>
+        <v>2053</v>
       </c>
       <c r="Q33" t="n">
         <v>304.2</v>
       </c>
       <c r="R33" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
@@ -3476,26 +3476,26 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2047.0 (±304.2)</t>
+          <t>2053.0 (±304.2)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>17.7% (±3.0%)</t>
+          <t>17.8% (±3.0%)</t>
         </is>
       </c>
       <c r="W33" t="n">
         <v>1239893</v>
       </c>
       <c r="X33" t="n">
-        <v>165.1</v>
+        <v>165.6</v>
       </c>
       <c r="Y33" t="n">
         <v>24.5</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>165.1(±24.5)</t>
+          <t>165.6(±24.5)</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>4656</v>
+        <v>4646</v>
       </c>
       <c r="E34" t="n">
         <v>5052</v>
@@ -3550,13 +3550,13 @@
         <v>4987.400000000001</v>
       </c>
       <c r="P34" t="n">
-        <v>-114.8</v>
+        <v>-124.8</v>
       </c>
       <c r="Q34" t="n">
         <v>216.6</v>
       </c>
       <c r="R34" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="S34" t="n">
         <v>4.2</v>
@@ -3568,26 +3568,26 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-114.8 (±216.6)</t>
+          <t>-124.8 (±216.6)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-2.4% (±4.2%)</t>
+          <t>-2.6% (±4.2%)</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>697930</v>
       </c>
       <c r="X34" t="n">
-        <v>-16.4</v>
+        <v>-17.9</v>
       </c>
       <c r="Y34" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>-16.4(±31.0)</t>
+          <t>-17.9(±31.1)</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
         <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="E38" t="n">
         <v>1665</v>
@@ -3918,13 +3918,13 @@
         <v>1671.3</v>
       </c>
       <c r="P38" t="n">
-        <v>37.8</v>
+        <v>38.8</v>
       </c>
       <c r="Q38" t="n">
         <v>61.1</v>
       </c>
       <c r="R38" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S38" t="n">
         <v>3.7</v>
@@ -3936,26 +3936,26 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>37.8 (±61.1)</t>
+          <t>38.8 (±61.1)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>2.3% (±3.7%)</t>
+          <t>2.4% (±3.7%)</t>
         </is>
       </c>
       <c r="W38" t="n">
         <v>214518</v>
       </c>
       <c r="X38" t="n">
-        <v>17.6</v>
+        <v>18.1</v>
       </c>
       <c r="Y38" t="n">
         <v>28.5</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>17.6(±28.5)</t>
+          <t>18.1(±28.5)</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
         <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="E39" t="n">
         <v>4140</v>
@@ -4010,16 +4010,16 @@
         <v>4076.700000000001</v>
       </c>
       <c r="P39" t="n">
-        <v>-109.8</v>
+        <v>-108.8</v>
       </c>
       <c r="Q39" t="n">
         <v>225.9</v>
       </c>
       <c r="R39" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="S39" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4028,26 +4028,26 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-109.8 (±225.9)</t>
+          <t>-108.8 (±225.9)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>-2.9% (±5.3%)</t>
+          <t>-2.8% (±5.4%)</t>
         </is>
       </c>
       <c r="W39" t="n">
         <v>877094</v>
       </c>
       <c r="X39" t="n">
-        <v>-12.5</v>
+        <v>-12.4</v>
       </c>
       <c r="Y39" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>-12.5(±25.7)</t>
+          <t>-12.4(±25.8)</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
         <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>45854</v>
+        <v>45871</v>
       </c>
       <c r="E40" t="n">
         <v>48367</v>
@@ -4102,16 +4102,16 @@
         <v>48015.5</v>
       </c>
       <c r="P40" t="n">
-        <v>-488.2</v>
+        <v>-471.2</v>
       </c>
       <c r="Q40" t="n">
         <v>1673.3</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="S40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -4120,26 +4120,26 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-488.2 (±1673.3)</t>
+          <t>-471.2 (±1673.3)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-1.1% (±3.4%)</t>
+          <t>-1.0% (±3.5%)</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>10505421</v>
       </c>
       <c r="X40" t="n">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="Y40" t="n">
         <v>15.9</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>-4.6(±15.9)</t>
+          <t>-4.5(±15.9)</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>36742</v>
+        <v>36751</v>
       </c>
       <c r="E44" t="n">
         <v>33698</v>
@@ -4470,7 +4470,7 @@
         <v>33544.49999999999</v>
       </c>
       <c r="P44" t="n">
-        <v>4056</v>
+        <v>4065</v>
       </c>
       <c r="Q44" t="n">
         <v>858.5</v>
@@ -4479,7 +4479,7 @@
         <v>12.4</v>
       </c>
       <c r="S44" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4488,26 +4488,26 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>4056.0 (±858.5)</t>
+          <t>4065.0 (±858.5)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>12.4% (±2.9%)</t>
+          <t>12.4% (±2.8%)</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>10938072</v>
       </c>
       <c r="X44" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="Y44" t="n">
         <v>7.8</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>37.1(±7.8)</t>
+          <t>37.2(±7.8)</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
         <v>2020</v>
       </c>
       <c r="D46" t="n">
-        <v>5336</v>
+        <v>5453</v>
       </c>
       <c r="E46" t="n">
         <v>5421</v>
@@ -4654,16 +4654,16 @@
         <v>5289.699999999998</v>
       </c>
       <c r="P46" t="n">
-        <v>422.2</v>
+        <v>539.2</v>
       </c>
       <c r="Q46" t="n">
         <v>375.9</v>
       </c>
       <c r="R46" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="S46" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4672,26 +4672,26 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>422.2 (±375.9)</t>
+          <t>539.2 (±375.9)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>8.6% (±7.7%)</t>
+          <t>11.0% (±7.9%)</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>465992</v>
       </c>
       <c r="X46" t="n">
-        <v>90.59999999999999</v>
+        <v>115.7</v>
       </c>
       <c r="Y46" t="n">
         <v>80.7</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>90.6(±80.7)</t>
+          <t>115.7(±80.7)</t>
         </is>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
         <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E47" t="n">
         <v>316</v>
@@ -4746,13 +4746,13 @@
         <v>351.8999999999999</v>
       </c>
       <c r="P47" t="n">
-        <v>38.6</v>
+        <v>40.6</v>
       </c>
       <c r="Q47" t="n">
         <v>11.5</v>
       </c>
       <c r="R47" t="n">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="S47" t="n">
         <v>3.6</v>
@@ -4764,26 +4764,26 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>38.6 (±11.5)</t>
+          <t>40.6 (±11.5)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>11.3% (±3.6%)</t>
+          <t>11.9% (±3.6%)</t>
         </is>
       </c>
       <c r="W47" t="n">
         <v>111423</v>
       </c>
       <c r="X47" t="n">
-        <v>34.6</v>
+        <v>36.4</v>
       </c>
       <c r="Y47" t="n">
         <v>10.4</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>34.6(±10.4)</t>
+          <t>36.4(±10.4)</t>
         </is>
       </c>
     </row>
@@ -4894,7 +4894,7 @@
         <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="E49" t="n">
         <v>714</v>
@@ -4930,16 +4930,16 @@
         <v>739</v>
       </c>
       <c r="P49" t="n">
-        <v>35.8</v>
+        <v>45.8</v>
       </c>
       <c r="Q49" t="n">
         <v>15.8</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="S49" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4948,26 +4948,26 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>35.8 (±15.8)</t>
+          <t>45.8 (±15.8)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>5.0% (±2.3%)</t>
+          <t>6.3% (±2.2%)</t>
         </is>
       </c>
       <c r="W49" t="n">
         <v>100614</v>
       </c>
       <c r="X49" t="n">
-        <v>35.6</v>
+        <v>45.5</v>
       </c>
       <c r="Y49" t="n">
         <v>15.7</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>35.6(±15.7)</t>
+          <t>45.5(±15.7)</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
         <v>2020</v>
       </c>
       <c r="D53" t="n">
-        <v>8787</v>
+        <v>8828</v>
       </c>
       <c r="E53" t="n">
         <v>8186</v>
@@ -5298,13 +5298,13 @@
         <v>8370</v>
       </c>
       <c r="P53" t="n">
-        <v>528.2</v>
+        <v>569.2</v>
       </c>
       <c r="Q53" t="n">
         <v>111.2</v>
       </c>
       <c r="R53" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="S53" t="n">
         <v>1.4</v>
@@ -5316,26 +5316,26 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>528.2 (±111.2)</t>
+          <t>569.2 (±111.2)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>6.4% (±1.4%)</t>
+          <t>6.9% (±1.4%)</t>
         </is>
       </c>
       <c r="W53" t="n">
         <v>1760933</v>
       </c>
       <c r="X53" t="n">
-        <v>30</v>
+        <v>32.3</v>
       </c>
       <c r="Y53" t="n">
         <v>6.3</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>30.0(±6.3)</t>
+          <t>32.3(±6.3)</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
         <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>6742</v>
+        <v>6733</v>
       </c>
       <c r="E55" t="n">
         <v>7241</v>
@@ -5482,16 +5482,16 @@
         <v>7144.500000000001</v>
       </c>
       <c r="P55" t="n">
-        <v>-135.8</v>
+        <v>-144.8</v>
       </c>
       <c r="Q55" t="n">
         <v>266.7</v>
       </c>
       <c r="R55" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="S55" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -5500,26 +5500,26 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>-135.8 (±266.7)</t>
+          <t>-144.8 (±266.7)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>-2.0% (±3.6%)</t>
+          <t>-2.1% (±3.7%)</t>
         </is>
       </c>
       <c r="W55" t="n">
         <v>954836</v>
       </c>
       <c r="X55" t="n">
-        <v>-14.2</v>
+        <v>-15.2</v>
       </c>
       <c r="Y55" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>-14.2(±27.9)</t>
+          <t>-15.2(±28.0)</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>2020</v>
       </c>
       <c r="D57" t="n">
-        <v>32187</v>
+        <v>32188</v>
       </c>
       <c r="E57" t="n">
         <v>28777</v>
@@ -5666,7 +5666,7 @@
         <v>28977.6</v>
       </c>
       <c r="P57" t="n">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="Q57" t="n">
         <v>320.6</v>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>3530.0 (±320.6)</t>
+          <t>3531.0 (±320.6)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -5814,7 +5814,7 @@
         <v>2020</v>
       </c>
       <c r="D59" t="n">
-        <v>3930</v>
+        <v>3941</v>
       </c>
       <c r="E59" t="n">
         <v>4031</v>
@@ -5850,13 +5850,13 @@
         <v>4013.3</v>
       </c>
       <c r="P59" t="n">
-        <v>22.4</v>
+        <v>33.4</v>
       </c>
       <c r="Q59" t="n">
         <v>105.7</v>
       </c>
       <c r="R59" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="S59" t="n">
         <v>2.7</v>
@@ -5868,26 +5868,26 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>22.4 (±105.7)</t>
+          <t>33.4 (±105.7)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>0.6% (±2.7%)</t>
+          <t>0.9% (±2.7%)</t>
         </is>
       </c>
       <c r="W59" t="n">
         <v>1512422</v>
       </c>
       <c r="X59" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>1.5(±7.0)</t>
+          <t>2.2(±7.0)</t>
         </is>
       </c>
     </row>
@@ -5998,7 +5998,7 @@
         <v>2020</v>
       </c>
       <c r="D61" t="n">
-        <v>12680</v>
+        <v>12688</v>
       </c>
       <c r="E61" t="n">
         <v>12880</v>
@@ -6034,16 +6034,16 @@
         <v>12684.1</v>
       </c>
       <c r="P61" t="n">
-        <v>446.2</v>
+        <v>454.2</v>
       </c>
       <c r="Q61" t="n">
         <v>450.3</v>
       </c>
       <c r="R61" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="S61" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -6052,26 +6052,26 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>446.2 (±450.3)</t>
+          <t>454.2 (±450.3)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>3.6% (±3.6%)</t>
+          <t>3.7% (±3.7%)</t>
         </is>
       </c>
       <c r="W61" t="n">
         <v>3823073</v>
       </c>
       <c r="X61" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="Y61" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11.7(±11.7)</t>
+          <t>11.9(±11.8)</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>19849</v>
+        <v>19858</v>
       </c>
       <c r="E62" t="n">
         <v>17125</v>
@@ -6126,13 +6126,13 @@
         <v>17196.5</v>
       </c>
       <c r="P62" t="n">
-        <v>3116.8</v>
+        <v>3125.8</v>
       </c>
       <c r="Q62" t="n">
         <v>464.3</v>
       </c>
       <c r="R62" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="S62" t="n">
         <v>3.2</v>
@@ -6144,26 +6144,26 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>3116.8 (±464.3)</t>
+          <t>3125.8 (±464.3)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>18.6% (±3.2%)</t>
+          <t>18.7% (±3.2%)</t>
         </is>
       </c>
       <c r="W62" t="n">
         <v>2483521</v>
       </c>
       <c r="X62" t="n">
-        <v>125.5</v>
+        <v>125.9</v>
       </c>
       <c r="Y62" t="n">
         <v>18.7</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>125.5(±18.7)</t>
+          <t>125.9(±18.7)</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
         <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>6716</v>
+        <v>6705</v>
       </c>
       <c r="E63" t="n">
         <v>7224</v>
@@ -6218,13 +6218,13 @@
         <v>7120.200000000003</v>
       </c>
       <c r="P63" t="n">
-        <v>-114.4</v>
+        <v>-125.4</v>
       </c>
       <c r="Q63" t="n">
         <v>289.8</v>
       </c>
       <c r="R63" t="n">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="S63" t="n">
         <v>4</v>
@@ -6236,26 +6236,26 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>-114.4 (±289.8)</t>
+          <t>-125.4 (±289.8)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>-1.7% (±4.0%)</t>
+          <t>-1.8% (±4.0%)</t>
         </is>
       </c>
       <c r="W63" t="n">
         <v>1411276</v>
       </c>
       <c r="X63" t="n">
-        <v>-8.1</v>
+        <v>-8.9</v>
       </c>
       <c r="Y63" t="n">
         <v>20.5</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>-8.1(±20.5)</t>
+          <t>-8.9(±20.5)</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="E67" t="n">
         <v>2344</v>
@@ -6586,7 +6586,7 @@
         <v>2322.7</v>
       </c>
       <c r="P67" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q67" t="n">
         <v>85.7</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>113.0 (±85.7)</t>
+          <t>114.0 (±85.7)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -6616,14 +6616,14 @@
         <v>439984</v>
       </c>
       <c r="X67" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Y67" t="n">
         <v>19.5</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>25.7(±19.5)</t>
+          <t>25.9(±19.5)</t>
         </is>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
         <v>2020</v>
       </c>
       <c r="D68" t="n">
-        <v>5463</v>
+        <v>5464</v>
       </c>
       <c r="E68" t="n">
         <v>6078</v>
@@ -6678,7 +6678,7 @@
         <v>6028.4</v>
       </c>
       <c r="P68" t="n">
-        <v>-277.8</v>
+        <v>-276.8</v>
       </c>
       <c r="Q68" t="n">
         <v>287.6</v>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>-277.8 (±287.6)</t>
+          <t>-276.8 (±287.6)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -6734,7 +6734,7 @@
         <v>2020</v>
       </c>
       <c r="D69" t="n">
-        <v>69811</v>
+        <v>69837</v>
       </c>
       <c r="E69" t="n">
         <v>72287</v>
@@ -6770,7 +6770,7 @@
         <v>72225.19999999998</v>
       </c>
       <c r="P69" t="n">
-        <v>-430.4</v>
+        <v>-404.4</v>
       </c>
       <c r="Q69" t="n">
         <v>1983.8</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>-430.4 (±1983.8)</t>
+          <t>-404.4 (±1983.8)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -6800,14 +6800,14 @@
         <v>21517650</v>
       </c>
       <c r="X69" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="Y69" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>-2.0(±9.2)</t>
+          <t>-1.9(±9.2)</t>
         </is>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
         <v>2020</v>
       </c>
       <c r="D73" t="n">
-        <v>57752</v>
+        <v>57766</v>
       </c>
       <c r="E73" t="n">
         <v>53841</v>
@@ -7138,7 +7138,7 @@
         <v>53590.89999999999</v>
       </c>
       <c r="P73" t="n">
-        <v>5425.4</v>
+        <v>5439.4</v>
       </c>
       <c r="Q73" t="n">
         <v>1264.3</v>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>5425.4 (±1264.3)</t>
+          <t>5439.4 (±1264.3)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -7168,14 +7168,14 @@
         <v>22244774</v>
       </c>
       <c r="X73" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>24.4(±5.7)</t>
+          <t>24.5(±5.6)</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
         <v>2020</v>
       </c>
       <c r="D75" t="n">
-        <v>7464</v>
+        <v>7620</v>
       </c>
       <c r="E75" t="n">
         <v>7520</v>
@@ -7322,16 +7322,16 @@
         <v>7325.299999999999</v>
       </c>
       <c r="P75" t="n">
-        <v>609.6</v>
+        <v>765.6</v>
       </c>
       <c r="Q75" t="n">
         <v>470.9</v>
       </c>
       <c r="R75" t="n">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="S75" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -7340,26 +7340,26 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>609.6 (±470.9)</t>
+          <t>765.6 (±470.9)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>8.9% (±7.0%)</t>
+          <t>11.2% (±7.2%)</t>
         </is>
       </c>
       <c r="W75" t="n">
         <v>985469</v>
       </c>
       <c r="X75" t="n">
-        <v>61.9</v>
+        <v>77.7</v>
       </c>
       <c r="Y75" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>61.9(±47.7)</t>
+          <t>77.7(±47.8)</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E76" t="n">
         <v>482</v>
@@ -7414,13 +7414,13 @@
         <v>537</v>
       </c>
       <c r="P76" t="n">
-        <v>26.2</v>
+        <v>27.2</v>
       </c>
       <c r="Q76" t="n">
         <v>13.2</v>
       </c>
       <c r="R76" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="S76" t="n">
         <v>2.6</v>
@@ -7432,26 +7432,26 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>26.2 (±13.2)</t>
+          <t>27.2 (±13.2)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>5.0% (±2.6%)</t>
+          <t>5.2% (±2.6%)</t>
         </is>
       </c>
       <c r="W76" t="n">
         <v>217216</v>
       </c>
       <c r="X76" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>12.1(±6.0)</t>
+          <t>12.5(±6.1)</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>1150</v>
+        <v>1163</v>
       </c>
       <c r="E78" t="n">
         <v>1115</v>
@@ -7598,16 +7598,16 @@
         <v>1115.9</v>
       </c>
       <c r="P78" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="Q78" t="n">
         <v>25.9</v>
       </c>
       <c r="R78" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="S78" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -7616,26 +7616,26 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>60.0 (±25.9)</t>
+          <t>73.0 (±25.9)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>5.5% (±2.4%)</t>
+          <t>6.7% (±2.5%)</t>
         </is>
       </c>
       <c r="W78" t="n">
         <v>205268</v>
       </c>
       <c r="X78" t="n">
-        <v>29.2</v>
+        <v>35.6</v>
       </c>
       <c r="Y78" t="n">
         <v>12.6</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>29.2(±12.6)</t>
+          <t>35.6(±12.6)</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         <v>2020</v>
       </c>
       <c r="D80" t="n">
-        <v>3730</v>
+        <v>3731</v>
       </c>
       <c r="E80" t="n">
         <v>4062</v>
@@ -7782,7 +7782,7 @@
         <v>4064.399999999999</v>
       </c>
       <c r="P80" t="n">
-        <v>-225.4</v>
+        <v>-224.4</v>
       </c>
       <c r="Q80" t="n">
         <v>109</v>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>-225.4 (±109.0)</t>
+          <t>-224.4 (±109.0)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -7812,14 +7812,14 @@
         <v>1734716</v>
       </c>
       <c r="X80" t="n">
-        <v>-13</v>
+        <v>-12.9</v>
       </c>
       <c r="Y80" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>-13.0(±6.3)</t>
+          <t>-12.9(±6.2)</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
         <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>12694</v>
+        <v>12756</v>
       </c>
       <c r="E82" t="n">
         <v>11809</v>
@@ -7966,13 +7966,13 @@
         <v>12138.8</v>
       </c>
       <c r="P82" t="n">
-        <v>680.2</v>
+        <v>742.2</v>
       </c>
       <c r="Q82" t="n">
         <v>125</v>
       </c>
       <c r="R82" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="S82" t="n">
         <v>1.1</v>
@@ -7984,26 +7984,26 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>680.2 (±125.0)</t>
+          <t>742.2 (±125.0)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>5.7% (±1.1%)</t>
+          <t>6.2% (±1.1%)</t>
         </is>
       </c>
       <c r="W82" t="n">
         <v>3736038</v>
       </c>
       <c r="X82" t="n">
-        <v>18.2</v>
+        <v>19.9</v>
       </c>
       <c r="Y82" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>18.2(±3.4)</t>
+          <t>19.9(±3.3)</t>
         </is>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
         <v>2020</v>
       </c>
       <c r="D84" t="n">
-        <v>9780</v>
+        <v>9772</v>
       </c>
       <c r="E84" t="n">
         <v>10409</v>
@@ -8150,13 +8150,13 @@
         <v>10245.5</v>
       </c>
       <c r="P84" t="n">
-        <v>-69.8</v>
+        <v>-77.8</v>
       </c>
       <c r="Q84" t="n">
         <v>395.7</v>
       </c>
       <c r="R84" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="S84" t="n">
         <v>3.8</v>
@@ -8168,26 +8168,26 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>-69.8 (±395.7)</t>
+          <t>-77.8 (±395.7)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>-0.7% (±3.8%)</t>
+          <t>-0.8% (±3.8%)</t>
         </is>
       </c>
       <c r="W84" t="n">
         <v>1918677</v>
       </c>
       <c r="X84" t="n">
-        <v>-3.6</v>
+        <v>-4.1</v>
       </c>
       <c r="Y84" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>-3.6(±20.6)</t>
+          <t>-4.1(±20.7)</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
         <v>2020</v>
       </c>
       <c r="D86" t="n">
-        <v>48530</v>
+        <v>48532</v>
       </c>
       <c r="E86" t="n">
         <v>42710</v>
@@ -8334,7 +8334,7 @@
         <v>43141</v>
       </c>
       <c r="P86" t="n">
-        <v>5726.6</v>
+        <v>5728.6</v>
       </c>
       <c r="Q86" t="n">
         <v>337.6</v>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>5726.6 (±337.6)</t>
+          <t>5728.6 (±337.6)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -8482,7 +8482,7 @@
         <v>2020</v>
       </c>
       <c r="D88" t="n">
-        <v>6192</v>
+        <v>6207</v>
       </c>
       <c r="E88" t="n">
         <v>6378</v>
@@ -8518,13 +8518,13 @@
         <v>6353.699999999999</v>
       </c>
       <c r="P88" t="n">
-        <v>-19.2</v>
+        <v>-4.2</v>
       </c>
       <c r="Q88" t="n">
         <v>142.5</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="S88" t="n">
         <v>2.2</v>
@@ -8536,26 +8536,26 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>-19.2 (±142.5)</t>
+          <t>-4.2 (±142.5)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>-0.3% (±2.2%)</t>
+          <t>-0.1% (±2.2%)</t>
         </is>
       </c>
       <c r="W88" t="n">
         <v>3008509</v>
       </c>
       <c r="X88" t="n">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="Y88" t="n">
         <v>4.7</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>-0.6(±4.7)</t>
+          <t>-0.1(±4.7)</t>
         </is>
       </c>
     </row>

--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(40-44) - (60-64)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(40-44) - (60-64)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -1030,7 +1030,7 @@
         <v>2020</v>
       </c>
       <c r="D7" t="n">
-        <v>4800</v>
+        <v>4803</v>
       </c>
       <c r="E7" t="n">
         <v>4887</v>
@@ -1066,7 +1066,7 @@
         <v>4810.099999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>142.4</v>
+        <v>145.4</v>
       </c>
       <c r="Q7" t="n">
         <v>152.5</v>
@@ -1075,7 +1075,7 @@
         <v>3.1</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1084,26 +1084,26 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>142.4 (±152.5)</t>
+          <t>145.4 (±152.5)</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>3.1% (±3.3%)</t>
+          <t>3.1% (±3.2%)</t>
         </is>
       </c>
       <c r="W7" t="n">
         <v>1853549</v>
       </c>
       <c r="X7" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>7.7(±8.2)</t>
+          <t>7.8(±8.3)</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
         <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="E38" t="n">
         <v>1665</v>
@@ -3918,13 +3918,13 @@
         <v>1671.3</v>
       </c>
       <c r="P38" t="n">
-        <v>38.8</v>
+        <v>40.8</v>
       </c>
       <c r="Q38" t="n">
         <v>61.1</v>
       </c>
       <c r="R38" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S38" t="n">
         <v>3.7</v>
@@ -3936,26 +3936,26 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>38.8 (±61.1)</t>
+          <t>40.8 (±61.1)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>2.4% (±3.7%)</t>
+          <t>2.5% (±3.7%)</t>
         </is>
       </c>
       <c r="W38" t="n">
         <v>214518</v>
       </c>
       <c r="X38" t="n">
-        <v>18.1</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="n">
         <v>28.5</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>18.1(±28.5)</t>
+          <t>19.0(±28.5)</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
         <v>2020</v>
       </c>
       <c r="D43" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E43" t="n">
         <v>123</v>
@@ -4378,13 +4378,13 @@
         <v>163.5</v>
       </c>
       <c r="P43" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="Q43" t="n">
         <v>14.9</v>
       </c>
       <c r="R43" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="S43" t="n">
         <v>9.699999999999999</v>
@@ -4396,26 +4396,26 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>8.4 (±14.9)</t>
+          <t>9.4 (±14.9)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>5.7% (±9.7%)</t>
+          <t>6.3% (±9.7%)</t>
         </is>
       </c>
       <c r="W43" t="n">
         <v>57069</v>
       </c>
       <c r="X43" t="n">
-        <v>14.7</v>
+        <v>16.5</v>
       </c>
       <c r="Y43" t="n">
         <v>26.1</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>14.7(±26.1)</t>
+          <t>16.5(±26.1)</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>15103</v>
+        <v>15106</v>
       </c>
       <c r="E65" t="n">
         <v>15183</v>
@@ -6402,16 +6402,16 @@
         <v>14972</v>
       </c>
       <c r="P65" t="n">
-        <v>600.6</v>
+        <v>603.6</v>
       </c>
       <c r="Q65" t="n">
         <v>469.6</v>
       </c>
       <c r="R65" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="S65" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6420,26 +6420,26 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>600.6 (±469.6)</t>
+          <t>603.6 (±469.6)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>4.1% (±3.2%)</t>
+          <t>4.2% (±3.3%)</t>
         </is>
       </c>
       <c r="W65" t="n">
         <v>3754028</v>
       </c>
       <c r="X65" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="Y65" t="n">
         <v>12.5</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>16.0(±12.5)</t>
+          <t>16.1(±12.5)</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="E67" t="n">
         <v>2344</v>
@@ -6586,13 +6586,13 @@
         <v>2322.7</v>
       </c>
       <c r="P67" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q67" t="n">
         <v>85.7</v>
       </c>
       <c r="R67" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="S67" t="n">
         <v>3.9</v>
@@ -6604,26 +6604,26 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>114.0 (±85.7)</t>
+          <t>116.0 (±85.7)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>5.1% (±3.9%)</t>
+          <t>5.2% (±3.9%)</t>
         </is>
       </c>
       <c r="W67" t="n">
         <v>439984</v>
       </c>
       <c r="X67" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="Y67" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>25.9(±19.5)</t>
+          <t>26.4(±19.4)</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
         <v>2020</v>
       </c>
       <c r="D72" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E72" t="n">
         <v>233</v>
@@ -7046,13 +7046,13 @@
         <v>268.0000000000001</v>
       </c>
       <c r="P72" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q72" t="n">
         <v>15</v>
       </c>
       <c r="R72" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="S72" t="n">
         <v>5.9</v>
@@ -7064,26 +7064,26 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>15.0 (±15.0)</t>
+          <t>16.0 (±15.0)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>5.9% (±5.9%)</t>
+          <t>6.3% (±5.9%)</t>
         </is>
       </c>
       <c r="W72" t="n">
         <v>111401</v>
       </c>
       <c r="X72" t="n">
-        <v>13.5</v>
+        <v>14.4</v>
       </c>
       <c r="Y72" t="n">
         <v>13.4</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>13.5(±13.4)</t>
+          <t>14.4(±13.4)</t>
         </is>
       </c>
     </row>
